--- a/data/proveedor/teddy/listos/teddy.xlsx
+++ b/data/proveedor/teddy/listos/teddy.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,13 @@
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="22" customWidth="1" min="13" max="13"/>
+    <col width="69" customWidth="1" min="13" max="13"/>
+    <col width="59" customWidth="1" min="14" max="14"/>
+    <col width="22" customWidth="1" min="15" max="15"/>
+    <col width="27" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="17" max="17"/>
+    <col width="1096" customWidth="1" min="18" max="18"/>
+    <col width="22" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -508,6 +514,36 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>canal_Categorías</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>canal_Tags</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>canal_Título para SEO</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>canal_Descripción para SEO</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>canal_Marca</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>canal_Descripción</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Porcentaje de aumento</t>
         </is>
       </c>
@@ -515,12 +551,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>sonajero-platitos</t>
+          <t>teddy-sonajero-platitos</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Sonajero platitos</t>
+          <t>Teddy - Sonajero platitos</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -561,3082 +597,4590 @@
       <c r="L2" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mordillos y Sonajeros</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>bebes, sonajero platitos</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S2" s="2" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>CAJITA-SONAJERO-COCHECITO-FANTASIA</t>
+          <t>teddy-sonajero-bolita</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>CAJITA SONAJERO COCHECITO FANTASÍA</t>
+          <t>Teddy - Sonajero Bolita</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>CAJITA SONAJERO COCHECITO FANTASÍA</t>
+          <t>SONAJERO BOLITA TRADICIONAL</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Teddy5053</t>
+          <t>Teddy264</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>5053</t>
+          <t>264</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>7791398050533</t>
+          <t>7791398022646</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>7791398050533</t>
+          <t>7791398022646</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>2057</v>
+        <v>580</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>2541</v>
+        <v>695</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>2263</v>
+        <v>638</v>
       </c>
       <c r="L3" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M3" s="2" t="n">
-        <v>24</v>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mordillos y Sonajeros</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>bebes, sonajero bolita</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: Mango e interior en esfera de polipropileno. Esfera de poliestireno.&lt;br /&gt;_x000D_
+&lt;br /&gt;_x000D_
+Forma de uso: al agitarlo produce un suave tintineo que llamar la atenci&amp;oacute;n del beb&amp;eacute;, entreteni&amp;eacute;ndolo y estimulando sus sentidos.&lt;/p&gt;_x000D_
+</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>mordillo-refrigerante-color</t>
+          <t>teddy-sonajero-bolita-fluo</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Mordillo refrigerante color</t>
+          <t>Teddy - Sonajero bolita - Fluo</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>MORDILLO REFRIGERANTE TRAD. COLOR</t>
+          <t>SONAJERO BOLITA TRADICIONAL FLUO</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Teddy274</t>
+          <t>Teddy266</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>266</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7791398022745</t>
+          <t>779139802266</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7791398022745</t>
+          <t>779139802266</t>
         </is>
       </c>
       <c r="I4" s="2" t="n">
-        <v>986</v>
+        <v>586</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1210</v>
+        <v>701</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1085</v>
+        <v>645</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M4" s="2" t="n">
-        <v>23</v>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mordillos y Sonajeros</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>bebes, sonajero bolita fluo</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: Mango e interior en esfera de polipropileno. Esfera de poliestireno.&lt;br /&gt;_x000D_
+&lt;br /&gt;_x000D_
+Forma de uso: al agitarlo produce un suave tintineo que llamar la atenci&amp;oacute;n del beb&amp;eacute;, entreteni&amp;eacute;ndolo y estimulando sus sentidos.&lt;/p&gt;_x000D_
+</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>mordillo-refrigerante</t>
+          <t>teddy-biberon-acinturado-con-tetina-140-ml-silicona</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Mordillo refrigerante</t>
+          <t>Teddy - Biberón Acinturado con Tetina - 140 ml - Silicona</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>MORDILLO REFRIGERANTE TRADICIONAL</t>
+          <t>JUGUERA ACINTURADA DECOR. SILIC. 140ml c/flujos</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Teddy273</t>
+          <t>Teddy148</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>148</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7791398022738</t>
+          <t>7791398021489</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7791398022738</t>
+          <t>7791398021489</t>
         </is>
       </c>
       <c r="I5" s="2" t="n">
-        <v>968</v>
+        <v>1331</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>1185</v>
+        <v>1331</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1065</v>
+        <v>1464</v>
       </c>
       <c r="L5" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M5" s="2" t="n">
-        <v>22</v>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mamaderas y Biberones</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>140 ml, bebes, silicona, Teddy biberon acinturado, tetina</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>mordillo-refrigerante-hipo-equilibrista</t>
+          <t>biberon-tradicional-con-tetina-de-latex-250-ml</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Mordillo refrigerante hipo equilibrista</t>
+          <t>Biberon tradicional con tetina de latex 250 ml</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>MORDILLO REFRIGERANTE HIPO EQUILIBRISTA</t>
+          <t>BIBERÓN DEC.LÁTEX 250ml c/flujos</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Teddy263</t>
+          <t>Teddy12</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7791398002631</t>
+          <t>7791398022004</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7791398002631</t>
+          <t>7791398022004</t>
         </is>
       </c>
       <c r="I6" s="2" t="n">
-        <v>992</v>
+        <v>1270</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1208</v>
+        <v>1270</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1091</v>
+        <v>1397</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M6" s="2" t="n">
-        <v>22</v>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mamaderas y Biberones</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>bebes, biberon tradicional, tetina latex</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: Botella, Rosca, Tapa y Capuch&amp;oacute;n de polipropileno Tetina de l&amp;aacute;tex. Decorado con tintas y/o pigmentos No t&amp;oacute;xicos. Forma de uso: lavar todas las partes con agua y detergente suave. Esterilizar hirviendo durante 5 minutos en recipiente destapado. Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura. Reemplazar ante el menor signo de deterioro. Verificar siempre la temperatura del alimento antes de ofrec&amp;eacute;rcelo al beb&amp;eacute;. Ofrecer la mamadera al beb&amp;eacute; en posici&amp;oacute;n semi-sentado, para disminu&amp;iacute;r el riesgo de otitis. No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>mordillo-refrigerante-pato-dormilon</t>
+          <t>tetina-tradicional-de-silicona-2-unidades</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Mordillo refrigerante Pato Dormilon</t>
+          <t>Tetina tradicional de silicona (2 unidades)</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>MORDILLO REFRIGERANTE PATO DORMILÓN</t>
+          <t>TETINA CRISTAL X 2 (SILIC)</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Teddy262</t>
+          <t>Teddy206</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>206</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7791398002624</t>
+          <t>7791398090607</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7791398002624</t>
+          <t>7791398090607</t>
         </is>
       </c>
       <c r="I7" s="2" t="n">
-        <v>992</v>
+        <v>1064</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>1208</v>
+        <v>1064</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1091</v>
+        <v>1170</v>
       </c>
       <c r="L7" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M7" s="2" t="n">
-        <v>22</v>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2 unidades, bebes, silicona, tetina tradicional</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>taza-con-asa-y-tapa</t>
+          <t>cajita-de-regalo-latex-s-bpa</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Taza con asa y tapa</t>
+          <t>CAJITA DE REGALO - LATEX S/BPA</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>TAZA C/ASA Y TAPA</t>
+          <t>CAJITA DE REGALO - LATEX  S/BPA</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Teddy408</t>
+          <t>Teddy1976</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7791398002426</t>
+          <t>7791398019769</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7791398002426</t>
+          <t>7791398019769</t>
         </is>
       </c>
       <c r="I8" s="2" t="n">
-        <v>465</v>
+        <v>2226</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>562</v>
+        <v>2226</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>512</v>
+        <v>2449</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>21</v>
+        <v/>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>mordillo-refrigerante-medalla-fantasia</t>
+          <t>cajita-de-regalo-silicona-s-bpa</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Mordillo refrigerante medalla fantasia</t>
+          <t>CAJITA DE REGALO - SILICONA S/BPA</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>MORDILLO REFRIGERANTE MEDALLA FANTASIA</t>
+          <t>CAJITA DE REGALO -  SILICONA  S/BPA</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Teddy267</t>
+          <t>Teddy1975</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7791398002679</t>
+          <t>7791398019776</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7791398002679</t>
+          <t>7791398019776</t>
         </is>
       </c>
       <c r="I9" s="2" t="n">
-        <v>986</v>
+        <v>2528</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>1191</v>
+        <v>2528</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1085</v>
+        <v>2781</v>
       </c>
       <c r="L9" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>21</v>
+        <v/>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>sonajero-pato-dormilon</t>
+          <t>cajita-de-regalo-c-vaso-bb-s-bpa</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Sonajero pato dormilon</t>
+          <t>CAJITA DE REGALO C/VASO BB S/BPA</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>SONAJERO PATO DORMILÓN</t>
+          <t>CAJITA DE REGALO C/VASO BB S/BPA</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Teddy1265</t>
+          <t>Teddy1974</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7791398012654</t>
+          <t>7791398019745</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7791398012654</t>
+          <t>7791398019745</t>
         </is>
       </c>
       <c r="I10" s="2" t="n">
-        <v>756</v>
+        <v>2226</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>913</v>
+        <v>2226</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>832</v>
+        <v>2449</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>21</v>
+        <v/>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>sonajero-hipo-equilibrista</t>
+          <t>sonajero-pato-dormilon</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Sonajero hipo equilibrista</t>
+          <t>Sonajero pato dormilon</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>SONAJERO HIPO EQUILIBRISTA</t>
+          <t>SONAJERO PATO DORMILÓN</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Teddy1264</t>
+          <t>Teddy1265</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>1265</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7791398012647</t>
+          <t>7791398012654</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7791398012647</t>
+          <t>7791398012654</t>
         </is>
       </c>
       <c r="I11" s="2" t="n">
-        <v>756</v>
+        <v>913</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>913</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>832</v>
+        <v>1004</v>
       </c>
       <c r="L11" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M11" s="2" t="n">
-        <v>21</v>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mordillos y Sonajeros</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>bebes, sonajero pato dormilon</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: Anillo refrigerante de E.V.A (Etileno y Acetato de vinilo) Agua tratada, no t&amp;oacute;xica. Mango de poliestireno.Encastre de ABS. Tintas y/o pigmentos no t&amp;oacute;xicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: Lavar con agua y detergente suave. Guardar en heladera en recipiente limpio con tapa.&lt;br /&gt;
+&lt;br /&gt;
+Usar estando refrigerado. No colocar en congelador / freezer. Esterilizar en fr&amp;iacute;o con el producto adecuado.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>vaso-bebe-decorado</t>
+          <t>sonajero-hipo-equilibrista</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Vaso bebe decorado</t>
+          <t>Sonajero hipo equilibrista</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>VASO BEBE DECORADO</t>
+          <t>SONAJERO HIPO EQUILIBRISTA</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Teddy407</t>
+          <t>Teddy1264</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7791398040701</t>
+          <t>7791398012647</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7791398040701</t>
+          <t>7791398012647</t>
         </is>
       </c>
       <c r="I12" s="2" t="n">
-        <v>804</v>
+        <v>913</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>968</v>
+        <v>913</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>884</v>
+        <v>1004</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M12" s="2" t="n">
-        <v>20</v>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mordillos y Sonajeros</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>bebes, sonajero hipo equilibrista</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: Mango, &amp;oacute;valo y esferita interior de poliestireno.&lt;br /&gt;
+Encastre de ABS.&lt;br /&gt;
+Tintas y/o pigmentos No t&amp;oacute;xicos.&lt;br /&gt;
+Forma de uso: al agitarlo produce un sonido que llamar&amp;aacute; la atenci&amp;oacute;n del beb&amp;eacute;, entreteni&amp;eacute;ndolo y estimulando sus sentidos.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>vaso-bebe-cristal</t>
+          <t>estuche-regalo-recien-nacido-s-bpa</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>VASO BEBE CRISTAL</t>
+          <t>ESTUCHE REGALO - RECIÉN NACIDO S/BPA</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>VASO BEBE CRISTAL</t>
+          <t>ESTUCHE REGALO - RECIÉN NACIDO  S/BPA</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Teddy405</t>
+          <t>Teddy1243</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>1243</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7791398040503</t>
+          <t>7791398012432</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7791398040503</t>
+          <t>7791398012432</t>
         </is>
       </c>
       <c r="I13" s="2" t="n">
-        <v>804</v>
+        <v>3496</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>968</v>
+        <v>3496</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>884</v>
+        <v>3846</v>
       </c>
       <c r="L13" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>20</v>
+        <v/>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>chupete-bicolor-con-tetina-latex</t>
+          <t>teddy-biberon-tradicional-con-tetina-140-ml-silicona</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Chupete bicolor con tetina latex</t>
+          <t>Teddy - Biberón Tradicional con Tetina - 140 ml - Silicona</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>CHUP. BICOLOR TET. LÁTEX</t>
+          <t>JUGUERA DECOR.SIL. 140ml c/flujos</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Teddy277</t>
+          <t>Teddy1162</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7791398022776</t>
+          <t>7791398021625</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7791398022776</t>
+          <t>7791398021625</t>
         </is>
       </c>
       <c r="I14" s="2" t="n">
-        <v>719</v>
+        <v>1282</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>865</v>
+        <v>1282</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>791</v>
+        <v>1410</v>
       </c>
       <c r="L14" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M14" s="2" t="n">
-        <v>20</v>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mamaderas y Biberones</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>140 ml, bebes, silicona, Teddy biberon tradicional, tetina</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S14" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>ASPIRADOR-NASAL-ERGONoMETRO-C-2-PICOS</t>
+          <t>tetina-boca-ancha-de-silicona-2-unidades</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>ASPIRADOR NASAL ERGONÓMETRO C/ 2 PICOS</t>
+          <t>Tetina boca ancha de silicona (2 unidades)</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>ASPIRADOR NASAL ERGONÓMETRO C/ 2 PICOS</t>
+          <t>TETINA BOCA ANCHA X 2 (SILIC)</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Teddy8103</t>
+          <t>Teddy2063</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8103</t>
+          <t>2063</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7791398071033</t>
+          <t>7791398030634</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7791398071033</t>
+          <t>7791398030634</t>
         </is>
       </c>
       <c r="I15" s="2" t="n">
-        <v>1034</v>
+        <v>1512</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>1240</v>
+        <v>1512</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1137</v>
+        <v>1663</v>
       </c>
       <c r="L15" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M15" s="2" t="n">
-        <v>20</v>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2 unidades, bebes, silicona, tetina boca ancha</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: Silicona&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura.&lt;br /&gt;
+&lt;br /&gt;
+Reemplazar ante el menor signo de deterioro.&lt;br /&gt;
+&lt;br /&gt;
+No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>sonajero-bolita</t>
+          <t>teddy-biberon-tradicional-con-tetina-140-ml-latex</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Sonajero Bolita</t>
+          <t>Teddy - Biberón Tradicional con Tetina - 140 ml - Latex</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>SONAJERO BOLITA TRADICIONAL</t>
+          <t>JUGUERA DECOR.LÁTEX 140ml c/flujos</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Teddy264</t>
+          <t>Teddy1161</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7791398022646</t>
+          <t>7791398021618</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7791398022646</t>
+          <t>7791398021618</t>
         </is>
       </c>
       <c r="I16" s="2" t="n">
-        <v>580</v>
+        <v>1222</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>695</v>
+        <v>1222</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>638</v>
+        <v>1344</v>
       </c>
       <c r="L16" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M16" s="2" t="n">
-        <v>20</v>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mamaderas y Biberones</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>140 ml, bebes, latex, Teddy biberon tradicional, tetina</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S16" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>combo-plato-vaso-cuchara-avioncito</t>
+          <t>teddy-biberon-tradicional-con-tetina-250-ml-silicona</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Combo plato + vaso + cuchara avioncito</t>
+          <t>Teddy - Biberón Tradicional con Tetina - 250 ml - Silicona</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>PLATO+VASITO+ AVIÓN</t>
+          <t>BIBERÓN DEC.SILIC. 250ml c/flujos</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Teddy901</t>
+          <t>Teddy115</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>115</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7791398009012</t>
+          <t>7791398021502</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7791398009012</t>
+          <t>7791398021502</t>
         </is>
       </c>
       <c r="I17" s="2" t="n">
-        <v>792</v>
+        <v>1329</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>949</v>
+        <v>1329</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>871</v>
+        <v>1462</v>
       </c>
       <c r="L17" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M17" s="2" t="n">
-        <v>20</v>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mamaderas y Biberones</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>250 ml, bebes, silicona, Teddy biberon tradicional, tetina</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: Botella, Rosca, Tapa y Capuch&amp;oacute;n de polipropileno Tetina de silicona. Decorado con tintas y/o pigmentos No t&amp;oacute;xicos. Forma de uso: lavar todas las partes con agua y detergente suave. Esterilizar hirviendo durante 5 minutos en recipiente destapado. Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura. Reemplazar ante el menor signo de deterioro. Verificar siempre la temperatura del alimento antes de ofrec&amp;eacute;rcelo al beb&amp;eacute;. Ofrecer la mamadera al beb&amp;eacute; en posici&amp;oacute;n semi-sentado, para disminu&amp;iacute;r el riesgo de otitis. No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>taza-2-en-1</t>
+          <t>cajita-de-regalo-estimulacion-bebe</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Taza 2 en 1</t>
+          <t>CAJITA DE REGALO - ESTIMULACION BEBE</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>TAZA FUNCIONES 2 X 1</t>
+          <t>CAJITA DE REGALO - ESTIMULACION BEBE</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Teddy272</t>
+          <t>Teddy98</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>98</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7791398022721</t>
+          <t>7791398009807</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7791398022721</t>
+          <t>7791398009807</t>
         </is>
       </c>
       <c r="I18" s="2" t="n">
-        <v>1040</v>
+        <v>1391</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>1246</v>
+        <v>1391</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1144</v>
+        <v>1530</v>
       </c>
       <c r="L18" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>20</v>
+        <v/>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S18" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>sonajero-bolita-fluo</t>
+          <t>Ajuar-Grande</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Sonajero bolita fluo</t>
+          <t>Ajuar Grande</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>SONAJERO BOLITA TRADICIONAL FLUO</t>
+          <t>Ajuar Grande</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Teddy266</t>
+          <t>Teddy912</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>912</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>779139802266</t>
+          <t>7791398009128</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>779139802266</t>
+          <t>7791398009128</t>
         </is>
       </c>
       <c r="I19" s="2" t="n">
-        <v>586</v>
+        <v>8107</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>701</v>
+        <v>8107</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>645</v>
+        <v>8918</v>
       </c>
       <c r="L19" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>20</v>
+        <v/>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S19" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>chupete-decorado-con-tetina-de-latex</t>
+          <t>Ajuar-Chico</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Chupete decorado con tetina de latex</t>
+          <t>Ajuar Chico</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>CHUP. DECORADO TET. LÁTEX</t>
+          <t>Ajuar Chico</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Teddy276</t>
+          <t>Teddy91</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>91</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7791398022769</t>
+          <t>7791398009104</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7791398022769</t>
+          <t>7791398009104</t>
         </is>
       </c>
       <c r="I20" s="2" t="n">
-        <v>744</v>
+        <v>6485</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>889</v>
+        <v>6485</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>818</v>
+        <v>7134</v>
       </c>
       <c r="L20" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>19</v>
+        <v/>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S20" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>vaso-sorbito</t>
+          <t>combo-plato-cubiertos-sonajero</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Vaso sorbito</t>
+          <t>Combo plato + cubiertos + sonajero</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>VASO SORBITO</t>
+          <t>PLATO+SONAJ+CUBIERTOS</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Teddy269</t>
+          <t>Teddy908</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>908</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7791398022691</t>
+          <t>7791398009081</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7791398022691</t>
+          <t>7791398009081</t>
         </is>
       </c>
       <c r="I21" s="2" t="n">
-        <v>750</v>
+        <v>955</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>895</v>
+        <v>955</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>825</v>
+        <v>1050</v>
       </c>
       <c r="L21" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M21" s="2" t="n">
-        <v>19</v>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Vajilla</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>bebes, combo plato + cubiertos + sonajero</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P21" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Plato hondo de 16,5 cms +  Cuchara Avioncito +  Vaso bebé decorado, con tapa sorbedora, de 140 ml.&lt;br /&gt;
+&lt;br /&gt;
+Materiales: Todos los artículos han sido fabricados con materia prima de primera calidad (polipropileno, policarbonato, polietileno). Las tintas y pigmentos utilizados en la decoración No son tóxicos.</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>tetina-boca-ancha-de-silicona-2-unidades</t>
+          <t>combo-plato-cuchara-avioncito-esponja</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Tetina boca ancha de silicona (2 unidades)</t>
+          <t>Combo plato + cuchara avioncito + esponja</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>TETINA BOCA ANCHA X 2 (SILIC)</t>
+          <t>PLATO+AVIONCITO+ESPONJ</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Teddy2063</t>
+          <t>Teddy907</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2063</t>
+          <t>907</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7791398030634</t>
+          <t>7791398009074</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7791398030634</t>
+          <t>7791398009074</t>
         </is>
       </c>
       <c r="I22" s="2" t="n">
-        <v>1270</v>
+        <v>1089</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>1512</v>
+        <v>1089</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1397</v>
+        <v>1198</v>
       </c>
       <c r="L22" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M22" s="2" t="n">
-        <v>19</v>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Vajilla</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>bebes, combo plato + cuchara avioncito + esponja</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P22" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Plato hondo de 16,5 cms +  Cuchara avioncito +  Esponja.&lt;br /&gt;
+&lt;br /&gt;
+Materiales: Todos los artículos han sido fabricados con materia prima de primera calidad (polipropileno, policarbonato, polietileno). Las tintas y pigmentos utilizados en la decoración No son tóxicos.</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>taza-3-en-1</t>
+          <t>combo-plato-cubiertos-taza</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Taza 3 en 1</t>
+          <t>Combo plato + cubiertos + taza</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>TAZA FUNCIONES 3 X 1</t>
+          <t>PLATO+TAZA2X1+CUBIERTO</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Teddy268</t>
+          <t>Teddy906</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>906</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7791398022684</t>
+          <t>7791398009067</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7791398022684</t>
+          <t>7791398009067</t>
         </is>
       </c>
       <c r="I23" s="2" t="n">
-        <v>1433</v>
+        <v>1264</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>1706</v>
+        <v>1264</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1576</v>
+        <v>1390</v>
       </c>
       <c r="L23" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M23" s="2" t="n">
-        <v>19</v>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Vajilla</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>bebes, combo plato + cubiertos + taza</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P23" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S23" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>juego-de-cubiertos</t>
+          <t>combo-plato-cuchara-avioncito-taza</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Juego de cubiertos</t>
+          <t>Combo plato + cuchara avioncito + taza</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>JUEGO CUBIERTOS</t>
+          <t>PLATO+TAZA+AVIONCITO</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Teddy505</t>
+          <t>Teddy905</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>905</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>779139802505</t>
+          <t>779139800905</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>779139802505</t>
+          <t>779139800905</t>
         </is>
       </c>
       <c r="I24" s="2" t="n">
-        <v>641</v>
+        <v>980</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>762</v>
+        <v>980</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>705</v>
+        <v>1078</v>
       </c>
       <c r="L24" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M24" s="2" t="n">
-        <v>19</v>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Vajilla</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>bebes, combo plato + cuchara avioncito + taza</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P24" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Plato hondo de 16,5 cms +  Cuchara avioncito +  Taza decorada, con doble asa, de 200 ml.&lt;br /&gt;
+&lt;br /&gt;
+Materiales: Todos los artículos han sido fabricados con materia prima de primera calidad (polipropileno, policarbonato, polietileno). Las tintas y pigmentos utilizados en la decoración No son tóxicos.</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>cuchara-avioncito</t>
+          <t>combo-plato-vaso-cuchara-avioncito</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Cuchara avioncito</t>
+          <t>Combo plato + vaso + cuchara avioncito</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>AVIONCITO CUCHARA</t>
+          <t>PLATO+VASITO+ AVIÓN</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Teddy506</t>
+          <t>Teddy901</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>901</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7791398025067</t>
+          <t>7791398009012</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7791398025067</t>
+          <t>7791398009012</t>
         </is>
       </c>
       <c r="I25" s="2" t="n">
-        <v>738</v>
+        <v>949</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>877</v>
+        <v>949</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>812</v>
+        <v>1044</v>
       </c>
       <c r="L25" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M25" s="2" t="n">
-        <v>19</v>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Vajilla</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>bebes, combo plato + vaso + cuchara avioncito</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P25" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Plato hondo de 16,5 cms + 1 Cuchara Avioncito +  Vaso bebé decorado, con tapa sorbedora, de 140 ml.&lt;br /&gt;
+&lt;br /&gt;
+Materiales: Todos los artículos han sido fabricados con materia prima de primera calidad (polipropileno, policarbonato, polietileno). Las tintas y pigmentos utilizados en la decoración No son tóxicos.</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>teddy-biberon-boca-ancha-250-ml</t>
+          <t>tetina-de-latex-1-unidad</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Teddy - Biberón Boca Ancha - 250 ml</t>
+          <t>Tetina de latex (1 unidad)</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>BIBERÓN DEC. BOCA ANCHA SIL 250 ml</t>
+          <t>TETINA LÁTEX X 1</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Teddy151</t>
+          <t>Teddy2061</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>2061</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>7791398021519</t>
+          <t>7791398020611</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>7791398021519</t>
+          <t>7791398020611</t>
         </is>
       </c>
       <c r="I26" s="2" t="n">
-        <v>1548</v>
+        <v>623</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>1839</v>
+        <v>623</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1703</v>
+        <v>685</v>
       </c>
       <c r="L26" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M26" s="2" t="n">
-        <v>19</v>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1 unidad, bebes, tetina latex</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P26" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: L&amp;aacute;tex&lt;br /&gt;
+Forma de uso: lavar con agua y detergente suave.&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado. Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura. Reemplazar ante el menor signo de deterioro.&lt;br /&gt;
+No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>teddy-biberon-acinturado-con-tetina-250-ml-silicona</t>
+          <t>porta-chupete-corazon</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Teddy - Biberón Acinturado con Tetina - 250 ml - Silicona</t>
+          <t>Porta chupete corazon</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>BIBERÓN ACINTURADO  DEC. SILIC. 250ml c/flujos</t>
+          <t>PORTA CHUPETE CORAZÓN</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Teddy149</t>
+          <t>Teddy208</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>208</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>7791398021496</t>
+          <t>7791398030801</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>7791398021496</t>
+          <t>7791398030801</t>
         </is>
       </c>
       <c r="I27" s="2" t="n">
-        <v>1173</v>
+        <v>871</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>1391</v>
+        <v>871</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1290</v>
+        <v>958</v>
       </c>
       <c r="L27" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M27" s="2" t="n">
-        <v>19</v>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>bebes, porta chupete corazon</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P27" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: poliestireno alto impacto. Cinta algod&amp;oacute;n.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: Prender el portachupete a la ropita del beb&amp;eacute;, asegurando el chupete en el otro extremo.&lt;br /&gt;
+&lt;br /&gt;
+Examinar el portachupete con regularidad. Reemplazar ante el menor signo de deterioro.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>SONAJERO-COLGANTE-PARA-CUNACOCHECITO</t>
+          <t>cadena-porta-chupete</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>SONAJERO COLGANTE PARA CUNA/COCHECITO</t>
+          <t>Cadena porta chupete</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>SONAJERO COLGANTE PARA CUNA/COCHECITO</t>
+          <t>CADENA PORTA CHUPETE</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Teddy5056</t>
+          <t>Teddy207</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5056</t>
+          <t>207</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>7791398050564</t>
+          <t>7791398030702</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>7791398050564</t>
+          <t>7791398030702</t>
         </is>
       </c>
       <c r="I28" s="2" t="n">
-        <v>919</v>
+        <v>865</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1089</v>
+        <v>865</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1011</v>
+        <v>952</v>
       </c>
       <c r="L28" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M28" s="2" t="n">
-        <v>18</v>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>bebes, cadena porta chupete</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P28" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: Polietileno. Pigmentos No t&amp;oacute;xicos. Forma de Uso: Desprender el eslab&amp;oacute;n de seguridad, pasar la cadena por el aro del chupete y cerrar. Colgar la cadena del cuello del beb&amp;eacute;. Examinar con regularidad y reemplazar ante el menor signo de deterioro. No utilizar durante el sue&amp;ntilde;o del beb&amp;eacute;.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>combo-plato-cuchara-avioncito-taza</t>
+          <t>SONAJERO-CUNEROCOCHECITO-BOLITAS-FLUO</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Combo plato + cuchara avioncito + taza</t>
+          <t>SONAJERO CUNERO/COCHECITO BOLITAS FLUO</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>PLATO+TAZA+AVIONCITO</t>
+          <t>SONAJERO CUNERO/COCHECITO BOLITAS  FLUO</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Teddy905</t>
+          <t>Teddy5051</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>5051</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>779139800905</t>
+          <t>7791398050519</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>779139800905</t>
+          <t>7791398050519</t>
         </is>
       </c>
       <c r="I29" s="2" t="n">
-        <v>828</v>
+        <v>1137</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>980</v>
+        <v>1137</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>911</v>
+        <v>1251</v>
       </c>
       <c r="L29" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>18</v>
+        <v/>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P29" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S29" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>PLATO-VASITO-CUBIERTOS</t>
+          <t>ASPIRADOR-NASAL-ERGONoMETRO</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>PLATO+VASITO+ CUBIERTOS</t>
+          <t>ASPIRADOR NASAL ERGONÓMETRO</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>PLATO+VASITO+ CUBIERTOS</t>
+          <t>ASPIRADOR NASAL ERGONÓMETRO</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Teddy425</t>
+          <t>Teddy8102</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>8102</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>7791398042507</t>
+          <t>7791398071026</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>7791398042507</t>
+          <t>7791398071026</t>
         </is>
       </c>
       <c r="I30" s="2" t="n">
-        <v>798</v>
+        <v>1119</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>943</v>
+        <v>1119</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>878</v>
+        <v>1231</v>
       </c>
       <c r="L30" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>18</v>
+        <v/>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P30" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S30" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>teddy-biberon-tradicional-con-tetina-250-ml-silicona</t>
+          <t>TOALLON-CCAPUOCHA</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Teddy - Biberón Tradicional con Tetina - 250 ml - Silicona</t>
+          <t>TOALLÓN C/CAPUCHA</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>BIBERÓN DEC.SILIC. 250ml c/flujos</t>
+          <t>TOALLÓN C/CAPUCHA</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Teddy115</t>
+          <t>Teddy6254</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>6254</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>7791398021502</t>
+          <t>7791398062543</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>7791398021502</t>
+          <t>7791398062543</t>
         </is>
       </c>
       <c r="I31" s="2" t="n">
-        <v>1125</v>
+        <v>3751</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>1329</v>
+        <v>3751</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1238</v>
+        <v>4126</v>
       </c>
       <c r="L31" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>18</v>
+        <v/>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P31" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S31" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>porta-chupete-osito</t>
+          <t>BABITAS-X-2-UNIDADES</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Porta chupete osito</t>
+          <t>BABITAS X 2 UNIDADES</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>PORTA CHUPETE OSITO</t>
+          <t>BABITAS X 2 UNIDADES</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Teddy2081</t>
+          <t>Teddy6253</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>2081</t>
+          <t>6253</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>7791398030818</t>
+          <t>7791398062536</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>7791398030818</t>
+          <t>7791398062536</t>
         </is>
       </c>
       <c r="I32" s="2" t="n">
-        <v>738</v>
+        <v>1500</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>871</v>
+        <v>1500</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>812</v>
+        <v>1650</v>
       </c>
       <c r="L32" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>18</v>
+        <v/>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P32" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S32" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>porta-chupete-corazon</t>
+          <t>BANDANA-X-1-UNIDAD</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Porta chupete corazon</t>
+          <t>BANDANA X 1 UNIDAD</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>PORTA CHUPETE CORAZÓN</t>
+          <t>BANDANA X 1 UNIDAD</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Teddy208</t>
+          <t>Teddy6252</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>6252</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>7791398030801</t>
+          <t>7791398062529</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>7791398030801</t>
+          <t>7791398062529</t>
         </is>
       </c>
       <c r="I33" s="2" t="n">
-        <v>738</v>
+        <v>943</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>871</v>
+        <v>943</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>812</v>
+        <v>1037</v>
       </c>
       <c r="L33" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>18</v>
+        <v/>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P33" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S33" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>chupete-cristal-con-tetina-de-latex</t>
+          <t>BABERO-TOWEL-GRANDE</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Chupete cristal con tetina de latex</t>
+          <t>BABERO TOWEL GRANDE</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>CHUP. TRANSPARENTE TETINA LÁTEX</t>
+          <t>BABERO TOWEL GRANDE</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Teddy282</t>
+          <t>Teddy6251</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>6251</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>779139802282</t>
+          <t>7791398062512</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>779139802282</t>
+          <t>7791398062512</t>
         </is>
       </c>
       <c r="I34" s="2" t="n">
-        <v>738</v>
+        <v>786</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>871</v>
+        <v>786</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>812</v>
+        <v>865</v>
       </c>
       <c r="L34" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>18</v>
+        <v/>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P34" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S34" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>ASPIRADOR-NASAL-ERGONoMETRO</t>
+          <t>BABERO-TOWEL-CHICO</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>ASPIRADOR NASAL ERGONÓMETRO</t>
+          <t>BABERO TOWEL CHICO</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>ASPIRADOR NASAL ERGONÓMETRO</t>
+          <t>BABERO TOWEL CHICO</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Teddy8102</t>
+          <t>Teddy625</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>8102</t>
+          <t>625</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>7791398071026</t>
+          <t>7791398062505</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>7791398071026</t>
+          <t>7791398062505</t>
         </is>
       </c>
       <c r="I35" s="2" t="n">
-        <v>949</v>
+        <v>677</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>1119</v>
+        <v>677</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1044</v>
+        <v>745</v>
       </c>
       <c r="L35" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>18</v>
+        <v/>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P35" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S35" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>chupete-bicolor-con-tetina-de-silicona</t>
+          <t>SONAJERO-COLGANTE-PARA-CUNACOCHECITO</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Chupete bicolor con tetina de silicona</t>
+          <t>SONAJERO COLGANTE PARA CUNA/COCHECITO</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>CHUP. BICOLOR TET. SILICONA</t>
+          <t>SONAJERO COLGANTE PARA CUNA/COCHECITO</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Teddy279</t>
+          <t>Teddy5056</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>5056</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>779139802279</t>
+          <t>7791398050564</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>779139802279</t>
+          <t>7791398050564</t>
         </is>
       </c>
       <c r="I36" s="2" t="n">
-        <v>810</v>
+        <v>1089</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>955</v>
+        <v>1089</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>891</v>
+        <v>1198</v>
       </c>
       <c r="L36" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>18</v>
+        <v/>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P36" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S36" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>combo-plato-cubiertos-sonajero</t>
+          <t>CAJITA-SONAJERO-COCHECITO-FANTASIA</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Combo plato + cubiertos + sonajero</t>
+          <t>CAJITA SONAJERO COCHECITO FANTASÍA</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>PLATO+SONAJ+CUBIERTOS</t>
+          <t>CAJITA SONAJERO COCHECITO FANTASÍA</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Teddy908</t>
+          <t>Teddy5053</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>5053</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>7791398009081</t>
+          <t>7791398050533</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>7791398009081</t>
+          <t>7791398050533</t>
         </is>
       </c>
       <c r="I37" s="2" t="n">
-        <v>810</v>
+        <v>2541</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>955</v>
+        <v>2541</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>891</v>
+        <v>2795</v>
       </c>
       <c r="L37" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>18</v>
+        <v/>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P37" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S37" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>VASO-ANTIDERRAME-cagarradera</t>
+          <t>SONAJERO-CUNEROCOCHECITO-BOLITAS</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>VASO ANTIDERRAME c/agarradera</t>
+          <t>SONAJERO CUNERO/COCHECITO BOLITAS</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>VASO ANTIDERRAME c/agarradera</t>
+          <t>SONAJERO CUNERO/COCHECITO BOLITAS</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Teddy4082</t>
+          <t>Teddy505</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>4082</t>
+          <t>505</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>7791398050823</t>
+          <t>7791398050502</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>7791398050823</t>
+          <t>7791398050502</t>
         </is>
       </c>
       <c r="I38" s="2" t="n">
-        <v>1571</v>
+        <v>1113</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>1851</v>
+        <v>1113</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1728</v>
+        <v>1224</v>
       </c>
       <c r="L38" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>18</v>
+        <v/>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P38" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S38" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>teddy-portamamadera</t>
+          <t>teddy-biberon-acinturado-con-tetina-250-ml-silicona</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Teddy - Portamamadera</t>
+          <t>Teddy - Biberón Acinturado con Tetina - 250 ml - Silicona</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>PORTAMAMADERA DECORADO</t>
+          <t>BIBERÓN ACINTURADO  DEC. SILIC. 250ml c/flujos</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Teddy306</t>
+          <t>Teddy149</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>149</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>7791398003065</t>
+          <t>7791398021496</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>7791398003065</t>
+          <t>7791398021496</t>
         </is>
       </c>
       <c r="I39" s="2" t="n">
-        <v>822</v>
+        <v>1391</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>968</v>
+        <v>1391</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>904</v>
+        <v>1530</v>
       </c>
       <c r="L39" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M39" s="2" t="n">
-        <v>18</v>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mamaderas y Biberones</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>250 ml, bebes, biberon acinturado, silicona, tetina</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P39" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: Botella, Rosca, Tapa y Capuch&amp;oacute;n de polipropileno Tetina de silicona. Decorado con tintas y/o pigmentos No t&amp;oacute;xicos. Forma de uso: lavar todas las partes con agua y detergente suave. Esterilizar hirviendo durante 5 minutos en recipiente destapado. Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura. Reemplazar ante el menor signo de deterioro. Verificar siempre la temperatura del alimento antes de ofrec&amp;eacute;rcelo al beb&amp;eacute;. Ofrecer la mamadera al beb&amp;eacute; en posici&amp;oacute;n semi-sentado, para disminu&amp;iacute;r el riesgo de otitis. No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>combo-plato-cuchara-avioncito-esponja</t>
+          <t>PLATO-VASITO-CUBIERTOS</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Combo plato + cuchara avioncito + esponja</t>
+          <t>PLATO+VASITO+ CUBIERTOS</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>PLATO+AVIONCITO+ESPONJ</t>
+          <t>PLATO+VASITO+ CUBIERTOS</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Teddy907</t>
+          <t>Teddy425</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>425</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>7791398009074</t>
+          <t>7791398042507</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>7791398009074</t>
+          <t>7791398042507</t>
         </is>
       </c>
       <c r="I40" s="2" t="n">
-        <v>925</v>
+        <v>943</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>1089</v>
+        <v>943</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1018</v>
+        <v>1037</v>
       </c>
       <c r="L40" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>18</v>
+        <v/>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P40" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S40" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>teddy-biberon-acinturado-con-tetina-140-ml-silicona</t>
+          <t>PLATO-TeRMICO-SIN-DIVISIONES</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Teddy - Biberón Acinturado con Tetina - 140 ml - Silicona</t>
+          <t>PLATO TÉRMICO SIN DIVISIONES</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>JUGUERA ACINTURADA DECOR. SILIC. 140ml c/flujos</t>
+          <t>PLATO TÉRMICO SIN DIVISIONES</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Teddy148</t>
+          <t>Teddy4151</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>4151</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>7791398021489</t>
+          <t>7791398041517</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>7791398021489</t>
+          <t>7791398041517</t>
         </is>
       </c>
       <c r="I41" s="2" t="n">
-        <v>1131</v>
+        <v>1573</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>1331</v>
+        <v>1573</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1244</v>
+        <v>1730</v>
       </c>
       <c r="L41" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>18</v>
+        <v/>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P41" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S41" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>teddy-biberon-acinturado-con-tetina-140-ml-latex</t>
+          <t>PLATO-TERMICO-3-DIVISIONES</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Teddy - Biberón Acinturado con Tetina - 140 ml - Latex</t>
+          <t>PLATO TÉRMICO 3 DIVISIONES</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>JUGUERA ACINTURADA DECOR.LÁTEX 140ml c/flujos</t>
+          <t>PLATO TÉRMICO 3 DIVISIONES</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Teddy198</t>
+          <t>Teddy415</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>415</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>7791398021984</t>
+          <t>7791398091505</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>7791398021984</t>
+          <t>7791398091505</t>
         </is>
       </c>
       <c r="I42" s="2" t="n">
-        <v>1070</v>
+        <v>2153</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>1258</v>
+        <v>2153</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1177</v>
+        <v>2368</v>
       </c>
       <c r="L42" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>18</v>
+        <v/>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P42" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S42" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>teddy-biberon-tradicional-con-tetina-140-ml-latex</t>
+          <t>VASO-ANTIDERRAME-cagarradera</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Teddy - Biberón Tradicional con Tetina - 140 ml - Latex</t>
+          <t>VASO ANTIDERRAME c/agarradera</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>JUGUERA DECOR.LÁTEX 140ml c/flujos</t>
+          <t>VASO ANTIDERRAME c/agarradera</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Teddy1161</t>
+          <t>Teddy4082</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>7791398021618</t>
+          <t>7791398050823</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>7791398021618</t>
+          <t>7791398050823</t>
         </is>
       </c>
       <c r="I43" s="2" t="n">
-        <v>1040</v>
+        <v>1851</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>1222</v>
+        <v>1851</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1144</v>
+        <v>2036</v>
       </c>
       <c r="L43" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>18</v>
+        <v/>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P43" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S43" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>combo-plato-cubiertos-taza</t>
+          <t>taza-con-asa-y-tapa</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Combo plato + cubiertos + taza</t>
+          <t>Taza con asa y tapa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>PLATO+TAZA2X1+CUBIERTO</t>
+          <t>TAZA C/ASA Y TAPA</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Teddy906</t>
+          <t>Teddy408</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>408</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>7791398009067</t>
+          <t>7791398002426</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>7791398009067</t>
+          <t>7791398002426</t>
         </is>
       </c>
       <c r="I44" s="2" t="n">
-        <v>1076</v>
+        <v>562</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>1264</v>
+        <v>562</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>1184</v>
+        <v>618</v>
       </c>
       <c r="L44" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M44" s="2" t="n">
-        <v>17</v>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Vajilla</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>bebes, taza con asa y tapa</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P44" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: taza y tapa con pico sorbedor, de polipropileno.&lt;br /&gt;
+&lt;br /&gt;
+Decorado con tintas y/o pigmentos No t&amp;oacute;xicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de Uso: Para la etapa de transcisi&amp;oacute;n entre la juguera y la taza.&lt;br /&gt;
+&lt;br /&gt;
+Taza Juguera: coloque la tapa con sorbedor, para que el peque&amp;ntilde;o ingiera l&amp;iacute;quidos de manera controlada a trav&amp;eacute;s del pico con 3 orificios.&lt;br /&gt;
+&lt;br /&gt;
+Taza Uso normal: sin colocar tapa, puede tomar directamente de la taza.&lt;br /&gt;
+&lt;br /&gt;
+Higienizar siempre todas las partes con agua y detergente suave. En especial el pico de la tapa.&lt;br /&gt;
+&lt;br /&gt;
+Capac.aprox. 200ml.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>sonajero-medalla-fantasia</t>
+          <t>vaso-bebe-decorado</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Sonajero medalla fantasia</t>
+          <t>Vaso bebe decorado</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>SONAJERO MEDALLA FANTASÍA</t>
+          <t>VASO BEBE DECORADO</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Teddy265</t>
+          <t>Teddy407</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>407</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>7791398002655</t>
+          <t>7791398040701</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>7791398002655</t>
+          <t>7791398040701</t>
         </is>
       </c>
       <c r="I45" s="2" t="n">
-        <v>695</v>
+        <v>968</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>816</v>
+        <v>968</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>765</v>
+        <v>1065</v>
       </c>
       <c r="L45" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M45" s="2" t="n">
-        <v>17</v>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Vajilla</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>bebes, vaso bebe decorado</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P45" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: Cuerpo y tapa de polipropileno. Decorado con tintas y/o pigmentos No t&amp;oacute;xicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de Uso: la tapa con sorbedor permite la ingesta de l&amp;iacute;quidos de manera controlada a traves del pico con 3 orificios.&lt;br /&gt;
+&lt;br /&gt;
+Lavar con agua y detergente suave, asegurando la correcta higiene del pico. Capac.aprox. 140 ml.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S45" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>combo-plato-vasito</t>
+          <t>vaso-bebe-cristal</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Combo plato + vasito</t>
+          <t>VASO BEBE CRISTAL</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>JUEGO VASO Y PLATO</t>
+          <t>VASO BEBE CRISTAL</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Teddy271</t>
+          <t>Teddy405</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>405</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>7791398002716</t>
+          <t>7791398040503</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>7791398002716</t>
+          <t>7791398040503</t>
         </is>
       </c>
       <c r="I46" s="2" t="n">
-        <v>695</v>
+        <v>968</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>816</v>
+        <v>968</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>765</v>
+        <v>1065</v>
       </c>
       <c r="L46" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>17</v>
+        <v/>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P46" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S46" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>teddy-biberon-acinturado-con-tetina-250-ml-latex</t>
+          <t>porta-chupete-osito</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>Teddy - Biberón Acinturado con Tetina - 250 ml - Latex</t>
+          <t>Porta chupete osito</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>BIBERÓN ACINTURADO DEC.LÁTEX 250ml c/flujos</t>
+          <t>PORTA CHUPETE OSITO</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Teddy199</t>
+          <t>Teddy2081</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>2081</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>7791398021991</t>
+          <t>7791398030818</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>7791398021991</t>
+          <t>7791398030818</t>
         </is>
       </c>
       <c r="I47" s="2" t="n">
-        <v>1113</v>
+        <v>871</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>1306</v>
+        <v>871</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>1224</v>
+        <v>958</v>
       </c>
       <c r="L47" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M47" s="2" t="n">
-        <v>17</v>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>bebes, porta chupete osito</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P47" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R47" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: poliestireno alto impacto. Cinta algod&amp;oacute;n.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: Prender el portachupete a la ropita del beb&amp;eacute;, asegurando el chupete en el otro extremo.&lt;br /&gt;
+&lt;br /&gt;
+Examinar el portachupete con regularidad. Reemplazar ante el menor signo de deterioro.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S47" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>cajita-de-regalo-latex-s-bpa</t>
+          <t>cuchara-avioncito</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>CAJITA DE REGALO - LATEX S/BPA</t>
+          <t>Cuchara avioncito</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>CAJITA DE REGALO - LATEX  S/BPA</t>
+          <t>AVIONCITO CUCHARA</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Teddy1976</t>
+          <t>Teddy506</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>506</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>7791398019769</t>
+          <t>7791398025067</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>7791398019769</t>
+          <t>7791398025067</t>
         </is>
       </c>
       <c r="I48" s="2" t="n">
-        <v>1899</v>
+        <v>877</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>2226</v>
+        <v>877</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>2089</v>
+        <v>965</v>
       </c>
       <c r="L48" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M48" s="2" t="n">
-        <v>17</v>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Vajilla</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>bebes, cuchara avioncito</t>
+        </is>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P48" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: polipropileno.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+La forma de avioncito ha sido diseñada para que la tarea de alimentar al bebé se torne mas divertida, contribuyendo en la aceptación del alimento.</t>
+        </is>
+      </c>
+      <c r="S48" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>cajita-de-regalo-c-vaso-bb-s-bpa</t>
+          <t>juego-de-cubiertos</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>CAJITA DE REGALO C/VASO BB S/BPA</t>
+          <t>Juego de cubiertos</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>CAJITA DE REGALO C/VASO BB S/BPA</t>
+          <t>JUEGO CUBIERTOS</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Teddy1974</t>
+          <t>Teddy505</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>505</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>7791398019745</t>
+          <t>779139802505</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>7791398019745</t>
+          <t>779139802505</t>
         </is>
       </c>
       <c r="I49" s="2" t="n">
-        <v>1899</v>
+        <v>762</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>2226</v>
+        <v>762</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>2089</v>
+        <v>838</v>
       </c>
       <c r="L49" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M49" s="2" t="n">
-        <v>17</v>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Vajilla</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>bebes, juego cubiertos</t>
+        </is>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P49" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R49" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: Poilipropileno.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+El diseño angular ayuda al bebé a llevar con mayor facilidad el alimento a su boca.</t>
+        </is>
+      </c>
+      <c r="S49" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>cadena-porta-chupete</t>
+          <t>protector-de-mosquitos</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Cadena porta chupete</t>
+          <t>Protector de mosquitos</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>CADENA PORTA CHUPETE</t>
+          <t>PROTECTOR DE MOSQUITOS P/COCHECITO</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Teddy207</t>
+          <t>Teddy406</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>406</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>7791398030702</t>
+          <t>7791398004062</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>7791398030702</t>
+          <t>7791398004062</t>
         </is>
       </c>
       <c r="I50" s="2" t="n">
-        <v>738</v>
+        <v>1694</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>865</v>
+        <v>1694</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>812</v>
+        <v>1863</v>
       </c>
       <c r="L50" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M50" s="2" t="n">
-        <v>17</v>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Textil y Ropa</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>bebes, protector mosquitos</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P50" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R50" s="2" t="inlineStr">
+        <is>
+          <t>Para coche de bebé y cuna de viaje. Medida universal.&lt;br /&gt;
+Materiales: tela de tul, elástico poliéster</t>
+        </is>
+      </c>
+      <c r="S50" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>teddy-biberon-tradicional-con-tetina-140-ml-silicona</t>
+          <t>taza-2-en-1</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Teddy - Biberón Tradicional con Tetina - 140 ml - Silicona</t>
+          <t>Taza 2 en 1</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>JUGUERA DECOR.SIL. 140ml c/flujos</t>
+          <t>TAZA FUNCIONES 2 X 1</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Teddy1162</t>
+          <t>Teddy272</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>272</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>7791398021625</t>
+          <t>7791398022721</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>7791398021625</t>
+          <t>7791398022721</t>
         </is>
       </c>
       <c r="I51" s="2" t="n">
-        <v>1095</v>
+        <v>1246</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>1282</v>
+        <v>1246</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>1205</v>
+        <v>1371</v>
       </c>
       <c r="L51" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M51" s="2" t="n">
-        <v>17</v>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Vajilla</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>bebes, taza 2 en 1</t>
+        </is>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P51" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R51" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: taza y tapa con pico sorbedor, de polipropileno.&lt;br /&gt;
+&lt;br /&gt;
+Contrapeso de hierro zincado. Decorado con tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de Uso: Para la etapa de transición entre la juguera y la taza.&lt;br /&gt;
+&lt;br /&gt;
+Taza Juguera: coloque la tapa con sorbedor, para que el pequeño ingiera líquidos de manera controlada a través del pico con 3 orificios.&lt;br /&gt;
+&lt;br /&gt;
+Taza Uso normal: sin colocar tapa, puede tomar directamente de la taza.&lt;br /&gt;
+&lt;br /&gt;
+Higienizar siempre todas las partes con agua y detergente suave. En especial el pico de la tapa.&lt;br /&gt;
+&lt;br /&gt;
+Taza No apta para microondas. Capac.aprox. 200ml.</t>
+        </is>
+      </c>
+      <c r="S51" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>biberon-tradicional-con-tetina-de-latex-250-ml</t>
+          <t>cubre-cochecito</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Biberon tradicional con tetina de latex 250 ml</t>
+          <t>Cubre cochecito</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>BIBERÓN DEC.LÁTEX 250ml c/flujos</t>
+          <t>CUBRE COCHECITO UNIVERSAL</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Teddy12</t>
+          <t>Teddy405</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>405</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>7791398022004</t>
+          <t>7791398004055</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>7791398022004</t>
+          <t>7791398004055</t>
         </is>
       </c>
       <c r="I52" s="2" t="n">
-        <v>1087</v>
+        <v>3206</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>1270</v>
+        <v>3206</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>1196</v>
+        <v>3527</v>
       </c>
       <c r="L52" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M52" s="2" t="n">
-        <v>17</v>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Textil y Ropa</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>bebes, cubre cochecito</t>
+        </is>
+      </c>
+      <c r="O52" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P52" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R52" s="2" t="inlineStr">
+        <is>
+          <t>Protege al bebé del frío y la lluvia. Medida universal.&lt;br /&gt;
+Materiales: tela plástica, cinta de algodón.</t>
+        </is>
+      </c>
+      <c r="S52" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>cubre-cochecito</t>
+          <t>vaso-sorbito</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>Cubre cochecito</t>
+          <t>Vaso sorbito</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>CUBRE COCHECITO UNIVERSAL</t>
+          <t>VASO SORBITO</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Teddy405</t>
+          <t>Teddy269</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>269</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>7791398004055</t>
+          <t>7791398022691</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>7791398004055</t>
+          <t>7791398022691</t>
         </is>
       </c>
       <c r="I53" s="2" t="n">
-        <v>2746</v>
+        <v>895</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>3206</v>
+        <v>895</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>3021</v>
+        <v>985</v>
       </c>
       <c r="L53" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M53" s="2" t="n">
-        <v>17</v>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Vajilla</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>bebes, vaso sorbito</t>
+        </is>
+      </c>
+      <c r="O53" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P53" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R53" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: Cuerpo y tapa de polipropileno. Decorado con tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: la tapa con la bombilla permite la ingesta de líquidos de manera controlada. Lavar con agua y detergente suave, asegurando la correcta higiene de la bombilla. Capac. aprox. 200ml.</t>
+        </is>
+      </c>
+      <c r="S53" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>protector-de-mosquitos</t>
+          <t>taza-3-en-1</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Protector de mosquitos</t>
+          <t>Taza 3 en 1</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>PROTECTOR DE MOSQUITOS P/COCHECITO</t>
+          <t>TAZA FUNCIONES 3 X 1</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Teddy406</t>
+          <t>Teddy268</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>268</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>7791398004062</t>
+          <t>7791398022684</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>7791398004062</t>
+          <t>7791398022684</t>
         </is>
       </c>
       <c r="I54" s="2" t="n">
-        <v>1452</v>
+        <v>1706</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>1694</v>
+        <v>1706</v>
       </c>
       <c r="K54" s="2" t="n">
-        <v>1597</v>
+        <v>1877</v>
       </c>
       <c r="L54" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M54" s="2" t="n">
-        <v>17</v>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Vajilla</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>bebes, taza 3 en 1</t>
+        </is>
+      </c>
+      <c r="O54" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P54" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R54" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: taza, tapa con pico sorbedor y tapa con rosca, de polipropileno. Tetina de silicona.&lt;br /&gt;
+&lt;br /&gt;
+Contrapeso de hierro zincado. Decorado con tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de Uso: Para la etapa de transición entre el biberón y la taza.&lt;br /&gt;
+&lt;br /&gt;
+Taza Biberón: coloque la tapa con rosca y tetina, para que el niño se familiarice con la taza, pero continúe succionando como del biberón.&lt;br /&gt;
+&lt;br /&gt;
+Taza Juguera: coloque la tapa con sorbedor, para que el pequeño ingiera líquidos de manera controlada a través del pico con 3 orificios.&lt;br /&gt;
+&lt;br /&gt;
+Taza Uso normal: sin colocar tapa, puede tomar directamente de la taza.&lt;br /&gt;
+&lt;br /&gt;
+Higienizar siempre todas las partes con agua y detergente suave, en especial el pico de la tapa.&lt;br /&gt;
+&lt;br /&gt;
+Revisar la tetina con regularidad, reemplazandola ante el menor signo de deterioro. No usar la tetina como chupete. No exponer al sol. Taza No apta para microondas. Capac.aprox. 200 ml.</t>
+        </is>
+      </c>
+      <c r="S54" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>SONAJERO-CUNEROCOCHECITO-BOLITAS</t>
+          <t>mordillo-refrigerante-medalla-fantasia</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>SONAJERO CUNERO/COCHECITO BOLITAS</t>
+          <t>Mordillo refrigerante medalla fantasia</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>SONAJERO CUNERO/COCHECITO BOLITAS</t>
+          <t>MORDILLO REFRIGERANTE MEDALLA FANTASIA</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Teddy505</t>
+          <t>Teddy267</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>267</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>7791398050502</t>
+          <t>7791398002679</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>7791398050502</t>
+          <t>7791398002679</t>
         </is>
       </c>
       <c r="I55" s="2" t="n">
-        <v>955</v>
+        <v>1191</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>1113</v>
+        <v>1191</v>
       </c>
       <c r="K55" s="2" t="n">
-        <v>1051</v>
+        <v>1310</v>
       </c>
       <c r="L55" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M55" s="2" t="n">
-        <v>17</v>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mordillos y Sonajeros</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>bebes, medalla fantasia, mordillo refrigerante</t>
+        </is>
+      </c>
+      <c r="O55" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P55" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R55" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: Anillo refrigerante de E.V.A (Etileno y Acetato de vinilo) Agua tratada, no tóxica. Mango de poliestireno.Encastre de ABS.&lt;br /&gt;
+Tintas y/o pigmentos no tóxicos.&lt;br /&gt;
+Forma de uso: Lavar con agua y detergente suave. Guardar en heladera en recipiente limpio con tapa. Usar estando refrigerado. No colocar en congelador ó freezer. Esterilizar en frío con el producto adecuado.&lt;br /&gt;
+No hervir.&lt;br /&gt;
+Alivia las molestias de las encías inflamadas por la dentición.</t>
+        </is>
+      </c>
+      <c r="S55" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>chupete-recien-nacido-con-tetina-de-silicona-2-unidades</t>
+          <t>sonajero-medalla-fantasia</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Chupete recien nacido con tetina de silicona (2 unidades)</t>
+          <t>Sonajero medalla fantasia</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>CHUP. RECIÉN NACIDO TETINA SILICONA (2 UNIDADES)</t>
+          <t>SONAJERO MEDALLA FANTASÍA</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Teddy278</t>
+          <t>Teddy265</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>265</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>7791398022783</t>
+          <t>7791398002655</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>7791398022783</t>
+          <t>7791398002655</t>
         </is>
       </c>
       <c r="I56" s="2" t="n">
-        <v>1270</v>
+        <v>816</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>1476</v>
+        <v>816</v>
       </c>
       <c r="K56" s="2" t="n">
-        <v>1397</v>
+        <v>898</v>
       </c>
       <c r="L56" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M56" s="2" t="n">
-        <v>16</v>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mordillos y Sonajeros</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>bebes, sonajero medalla fantasia</t>
+        </is>
+      </c>
+      <c r="O56" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P56" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R56" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: Mango, óvalo y esferita interior de poliestireno. Encastre de ABS. Tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: al agitarlo produce un sonido que llamar la atención del bebé, entreteniéndolo y estimulando sus sentidos.</t>
+        </is>
+      </c>
+      <c r="S56" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>cajita-de-regalo-silicona-s-bpa</t>
+          <t>mordillo-refrigerante-hipo-equilibrista</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>CAJITA DE REGALO - SILICONA S/BPA</t>
+          <t>Mordillo refrigerante hipo equilibrista</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>CAJITA DE REGALO -  SILICONA  S/BPA</t>
+          <t>MORDILLO REFRIGERANTE HIPO EQUILIBRISTA</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Teddy1975</t>
+          <t>Teddy263</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>263</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>7791398019776</t>
+          <t>7791398002631</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>7791398019776</t>
+          <t>7791398002631</t>
         </is>
       </c>
       <c r="I57" s="2" t="n">
-        <v>2178</v>
+        <v>1208</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>2528</v>
+        <v>1208</v>
       </c>
       <c r="K57" s="2" t="n">
-        <v>2396</v>
+        <v>1329</v>
       </c>
       <c r="L57" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M57" s="2" t="n">
-        <v>16</v>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mordillos y Sonajeros</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>bebes, hipo equilibrista, mordillo refrigerante</t>
+        </is>
+      </c>
+      <c r="O57" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P57" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R57" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: Anillo refrigerante de E.V.A (Etileno y Acetato de vinilo) Agua tratada, no tóxica. Mango de poliestireno.Encastre de ABS. Tintas y/o pigmentos no tóxicos.&lt;br /&gt;
+Forma de uso: Lavar con agua y detergente suave. Guardar en heladera en recipiente limpio con tapa.&lt;br /&gt;
+Usar estando refrigerado. No colocar en congelador ó freezer. Esterilizar en frío con el producto adecuado.&lt;br /&gt;
+No hervir.&lt;br /&gt;
+Alivia las molestias de las encías inflamadas por la dentición.</t>
+        </is>
+      </c>
+      <c r="S57" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>SONAJERO-CUNEROCOCHECITO-BOLITAS-FLUO</t>
+          <t>mordillo-refrigerante-pato-dormilon</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>SONAJERO CUNERO/COCHECITO BOLITAS FLUO</t>
+          <t>Mordillo refrigerante Pato Dormilon</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>SONAJERO CUNERO/COCHECITO BOLITAS  FLUO</t>
+          <t>MORDILLO REFRIGERANTE PATO DORMILÓN</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Teddy5051</t>
+          <t>Teddy262</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>5051</t>
+          <t>262</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>7791398050519</t>
+          <t>7791398002624</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>7791398050519</t>
+          <t>7791398002624</t>
         </is>
       </c>
       <c r="I58" s="2" t="n">
-        <v>980</v>
+        <v>1208</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>1137</v>
+        <v>1208</v>
       </c>
       <c r="K58" s="2" t="n">
-        <v>1078</v>
+        <v>1329</v>
       </c>
       <c r="L58" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M58" s="2" t="n">
-        <v>16</v>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mordillos y Sonajeros</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>bebes, mordillo refrigerante, pato dormilon</t>
+        </is>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P58" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R58" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: Anillo refrigerante de E.V.A (Etileno y Acetato de vinilo) Agua tratada, no tóxica. Mango de poliestireno.Encastre de ABS. Tintas y/o pigmentos no tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: Lavar con agua y detergente suave. Guardar en heladera en recipiente limpio con tapa.&lt;br /&gt;
+&lt;br /&gt;
+Usar estando refrigerado. No colocar en congelador / freezer. Esterilizar en frío con el producto adecuado.</t>
+        </is>
+      </c>
+      <c r="S58" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>chup-total-de-silicona-anatomico</t>
+          <t>cepillos-limpiamamadera-con-mango</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>CHUP. TOTAL DE SILICONA ANATÓMICO</t>
+          <t>CEPILLOS LIMPIAMAMADERA CON MANGO</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHUP. TOTAL DE SILICONA ANATÓMICO  </t>
+          <t>CEPILLOS LIMPIAMAMADERA CON MANGO</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Teddy287</t>
+          <t>Teddy261</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>261</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>7791398022875</t>
+          <t>7791398002617</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>7791398022875</t>
+          <t>7791398002617</t>
         </is>
       </c>
       <c r="I59" s="2" t="n">
-        <v>980</v>
+        <v>919</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>1137</v>
+        <v>919</v>
       </c>
       <c r="K59" s="2" t="n">
-        <v>1078</v>
+        <v>1011</v>
       </c>
       <c r="L59" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>16</v>
+        <v/>
+      </c>
+      <c r="N59" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O59" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P59" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R59" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S59" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>chupete-100-silicona-redondo</t>
+          <t>esponja-bebe</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Chupete 100% silicona redondo</t>
+          <t>Esponja Bebe</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>CHUP. TOTAL DE SILICONA REDONDO</t>
+          <t>ESPONJA BEBE</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Teddy286</t>
+          <t>Teddy255</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>255</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>7791398022868</t>
+          <t>7791398002556</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>7791398022868</t>
+          <t>7791398002556</t>
         </is>
       </c>
       <c r="I60" s="2" t="n">
-        <v>980</v>
+        <v>689</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>1137</v>
+        <v>689</v>
       </c>
       <c r="K60" s="2" t="n">
-        <v>1078</v>
+        <v>758</v>
       </c>
       <c r="L60" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M60" s="2" t="n">
-        <v>16</v>
+      <c r="M60" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Higiene Personal</t>
+        </is>
+      </c>
+      <c r="N60" s="2" t="inlineStr">
+        <is>
+          <t>bebes, esponja bebe</t>
+        </is>
+      </c>
+      <c r="O60" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P60" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q60" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R60" s="2" t="inlineStr">
+        <is>
+          <t>Esponja de baño con forma de oso/a, para nena y varón.&lt;br /&gt;
+&lt;br /&gt;
+Materiales: Poliuretano expandido</t>
+        </is>
+      </c>
+      <c r="S60" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3677,72 +5221,112 @@
         </is>
       </c>
       <c r="I61" s="2" t="n">
-        <v>1754</v>
+        <v>2032</v>
       </c>
       <c r="J61" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="K61" s="2" t="n">
-        <v>1929</v>
+        <v>2235</v>
       </c>
       <c r="L61" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>16</v>
+        <v/>
+      </c>
+      <c r="N61" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O61" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P61" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q61" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R61" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S61" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>estuche-regalo-recien-nacido-s-bpa</t>
+          <t>estuche-regalo-c-plato-termico-sin-div</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>ESTUCHE REGALO - RECIÉN NACIDO S/BPA</t>
+          <t>ESTUCHE REGALO C/PLATO TÉRMICO SIN DIV.</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>ESTUCHE REGALO - RECIÉN NACIDO  S/BPA</t>
+          <t>ESTUCHE REGALO C/PLATO TÉRMICO SIN DIV.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Teddy1243</t>
+          <t>Teddy245</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>1243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>7791398012432</t>
+          <t>7791398002457</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>7791398012432</t>
+          <t>7791398002457</t>
         </is>
       </c>
       <c r="I62" s="2" t="n">
-        <v>3025</v>
+        <v>2238</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>3496</v>
+        <v>2238</v>
       </c>
       <c r="K62" s="2" t="n">
-        <v>3328</v>
+        <v>2462</v>
       </c>
       <c r="L62" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>16</v>
+        <v/>
+      </c>
+      <c r="N62" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O62" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P62" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q62" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R62" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S62" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3783,1132 +5367,1768 @@
         </is>
       </c>
       <c r="I63" s="2" t="n">
-        <v>2359</v>
+        <v>2722</v>
       </c>
       <c r="J63" s="2" t="n">
         <v>2722</v>
       </c>
       <c r="K63" s="2" t="n">
-        <v>2595</v>
+        <v>2994</v>
       </c>
       <c r="L63" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M63" s="2" t="n">
-        <v>15</v>
+        <v/>
+      </c>
+      <c r="N63" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O63" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P63" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R63" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S63" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>chupete-cristal-con-tetina-de-silicona</t>
+          <t>tetina-tradicional-de-latex</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Chupete cristal con tetina de silicona</t>
+          <t>Tetina tradicional de latex</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>CHUP. TRANSPARENTE TETINA SILICONA</t>
+          <t>TETINA LÁTEX X 2</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Teddy283</t>
+          <t>Teddy229</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>229</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>7791398022837</t>
+          <t>7791398022295</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>7791398022837</t>
+          <t>7791398022295</t>
         </is>
       </c>
       <c r="I64" s="2" t="n">
-        <v>907</v>
+        <v>998</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>1046</v>
+        <v>998</v>
       </c>
       <c r="K64" s="2" t="n">
-        <v>998</v>
+        <v>1098</v>
       </c>
       <c r="L64" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M64" s="2" t="n">
-        <v>15</v>
+      <c r="M64" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N64" s="2" t="inlineStr">
+        <is>
+          <t>bebes, latex, tetina tradicional</t>
+        </is>
+      </c>
+      <c r="O64" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P64" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q64" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R64" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S64" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BABERO-TOWEL-GRANDE</t>
+          <t>tetina-latex-x-2-c-flujos</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>BABERO TOWEL GRANDE</t>
+          <t>TETINA LÁTEX X 2 c/flujos</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>BABERO TOWEL GRANDE</t>
+          <t>TETINA LÁTEX X 2 c/flujos</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Teddy6251</t>
+          <t>Teddy228</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>6251</t>
+          <t>228</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>7791398062512</t>
+          <t>779139800228</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>7791398062512</t>
+          <t>779139800228</t>
         </is>
       </c>
       <c r="I65" s="2" t="n">
-        <v>683</v>
+        <v>998</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>786</v>
+        <v>998</v>
       </c>
       <c r="K65" s="2" t="n">
-        <v>751</v>
+        <v>1098</v>
       </c>
       <c r="L65" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>15</v>
+        <v/>
+      </c>
+      <c r="N65" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O65" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P65" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q65" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R65" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S65" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>cajita-de-regalo-estimulacion-bebe</t>
+          <t>teddy-biberon-acinturado-con-tetina-250-ml-latex</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>CAJITA DE REGALO - ESTIMULACION BEBE</t>
+          <t>Teddy - Biberón Acinturado con Tetina - 250 ml - Latex</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>CAJITA DE REGALO - ESTIMULACION BEBE</t>
+          <t>BIBERÓN ACINTURADO DEC.LÁTEX 250ml c/flujos</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Teddy98</t>
+          <t>Teddy199</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>199</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>7791398009807</t>
+          <t>7791398021991</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>7791398009807</t>
+          <t>7791398021991</t>
         </is>
       </c>
       <c r="I66" s="2" t="n">
-        <v>1210</v>
+        <v>1306</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>1391</v>
+        <v>1306</v>
       </c>
       <c r="K66" s="2" t="n">
-        <v>1331</v>
+        <v>1437</v>
       </c>
       <c r="L66" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M66" s="2" t="n">
-        <v>15</v>
+      <c r="M66" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mamaderas y Biberones</t>
+        </is>
+      </c>
+      <c r="N66" s="2" t="inlineStr">
+        <is>
+          <t>250 ml, bebes, biberon acinturado, latex, tetina</t>
+        </is>
+      </c>
+      <c r="O66" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P66" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q66" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R66" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: Botella, Rosca, Tapa y Capuch&amp;oacute;n de polipropileno Tetina de l&amp;aacute;tex. Decorado con tintas y/o pigmentos No t&amp;oacute;xicos. Forma de uso: lavar todas las partes con agua y detergente suave. Esterilizar hirviendo durante 5 minutos en recipiente destapado. Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura. Reemplazar ante el menor signo de deterioro. Verificar siempre la temperatura del alimento antes de ofrec&amp;eacute;rcelo al beb&amp;eacute;. Ofrecer la mamadera al beb&amp;eacute; en posici&amp;oacute;n semi-sentado, para disminu&amp;iacute;r el riesgo de otitis. No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S66" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>TOALLON-CCAPUOCHA</t>
+          <t>teddy-biberon-acinturado-con-tetina-140-ml-latex</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>TOALLÓN C/CAPUCHA</t>
+          <t>Teddy - Biberón Acinturado con Tetina - 140 ml - Latex</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>TOALLÓN C/CAPUCHA</t>
+          <t>JUGUERA ACINTURADA DECOR.LÁTEX 140ml c/flujos</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Teddy6254</t>
+          <t>Teddy198</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>6254</t>
+          <t>198</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>7791398062543</t>
+          <t>7791398021984</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>7791398062543</t>
+          <t>7791398021984</t>
         </is>
       </c>
       <c r="I67" s="2" t="n">
-        <v>3267</v>
+        <v>1258</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>3751</v>
+        <v>1258</v>
       </c>
       <c r="K67" s="2" t="n">
-        <v>3594</v>
+        <v>1384</v>
       </c>
       <c r="L67" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M67" s="2" t="n">
-        <v>15</v>
+      <c r="M67" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mamaderas y Biberones</t>
+        </is>
+      </c>
+      <c r="N67" s="2" t="inlineStr">
+        <is>
+          <t>140 ml, bebes, latex, Teddy biberon acinturado, tetina</t>
+        </is>
+      </c>
+      <c r="O67" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P67" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q67" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R67" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S67" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>tetina-latex-x-2-c-flujos</t>
+          <t>teddy-biberon-boca-ancha-250-ml</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>TETINA LÁTEX X 2 c/flujos</t>
+          <t>Teddy - Biberón Boca Ancha - 250 ml</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>TETINA LÁTEX X 2 c/flujos</t>
+          <t>BIBERÓN DEC. BOCA ANCHA SIL 250 ml</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Teddy228</t>
+          <t>Teddy151</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>151</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>779139800228</t>
+          <t>7791398021519</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>779139800228</t>
+          <t>7791398021519</t>
         </is>
       </c>
       <c r="I68" s="2" t="n">
-        <v>871</v>
+        <v>1839</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>998</v>
+        <v>1839</v>
       </c>
       <c r="K68" s="2" t="n">
-        <v>958</v>
+        <v>2023</v>
       </c>
       <c r="L68" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M68" s="2" t="n">
-        <v>15</v>
+      <c r="M68" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mamaderas y Biberones</t>
+        </is>
+      </c>
+      <c r="N68" s="2" t="inlineStr">
+        <is>
+          <t>250 ml, bebes, biberon boca ancha</t>
+        </is>
+      </c>
+      <c r="O68" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P68" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q68" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R68" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: Botella, Rosca, Tapa y Capuch&amp;oacute;n de polipropileno Tetina de silicona. Decorado con tintas y/o pigmentos No t&amp;oacute;xicos. Forma de uso: lavar todas las partes con agua y detergente suave. Esterilizar hirviendo durante 5 minutos en recipiente destapado, durante al menos los primeros 6 meses de vida, ya que las defensas del beb&amp;eacute; no est&amp;aacute;n a&amp;uacute;n totalmente desarrolladas. Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura. Reemplazar ante el menor signo de deterioro. Verificar siempre la temperatura del alimento antes de ofrec&amp;eacute;rcelo al beb&amp;eacute;, vertiendo unas gotas sobre la cara interna de la mu&amp;ntilde;eca, se deber&amp;aacute; sentir que est&amp;aacute; templada. Ofrecer la mamadera al beb&amp;eacute; en posici&amp;oacute;n semi-sentado, para disminu&amp;iacute;r el riesgo de otitis, ya que si el beb&amp;eacute; permanece acostado, aumenta el riesgo que algo de l&amp;iacute;quido se introduzca en la Trompa de Eustaquio y provoque inflamaci&amp;oacute;n. No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S68" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>tetina-tradicional-de-latex</t>
+          <t>combo-plato-vasito</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>Tetina tradicional de latex</t>
+          <t>Combo plato + vasito</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>TETINA LÁTEX X 2</t>
+          <t>JUEGO VASO Y PLATO</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr"/>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Teddy229</t>
+          <t>Teddy271</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>271</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>7791398022295</t>
+          <t>7791398002716</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>7791398022295</t>
+          <t>7791398002716</t>
         </is>
       </c>
       <c r="I69" s="2" t="n">
-        <v>871</v>
+        <v>816</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>998</v>
+        <v>816</v>
       </c>
       <c r="K69" s="2" t="n">
-        <v>958</v>
+        <v>898</v>
       </c>
       <c r="L69" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M69" s="2" t="n">
-        <v>15</v>
+      <c r="M69" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Vajilla</t>
+        </is>
+      </c>
+      <c r="N69" s="2" t="inlineStr">
+        <is>
+          <t>bebes, combo plato + vasito</t>
+        </is>
+      </c>
+      <c r="O69" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P69" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q69" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R69" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Plato hondo de 16.5 cms. + Vaso beb&amp;eacute; decorado, con tapa sorbedora, de 140 ml&lt;br /&gt;
+&lt;br /&gt;
+Materiales: Todos los art&amp;iacute;culos han sido fabricados con materia prima de primera calidad (polipropileno, policarbonato, polietileno). Las tintas y pigmentos utilizados en la decoraci&amp;oacute;n No son t&amp;oacute;xicos.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S69" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>chupete-decorado-con-tetina-de-silicona</t>
+          <t>ASPIRADOR-NASAL-ERGONoMETRO-C-2-PICOS</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>Chupete decorado con tetina de silicona</t>
+          <t>ASPIRADOR NASAL ERGONÓMETRO C/ 2 PICOS</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>CHUP. DECORADO TET. SILICONA</t>
+          <t>ASPIRADOR NASAL ERGONÓMETRO C/ 2 PICOS</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr"/>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Teddy281</t>
+          <t>Teddy8103</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>8103</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>7791398022813</t>
+          <t>7791398071033</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>7791398022813</t>
+          <t>7791398071033</t>
         </is>
       </c>
       <c r="I70" s="2" t="n">
-        <v>883</v>
+        <v>1240</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>1010</v>
+        <v>1240</v>
       </c>
       <c r="K70" s="2" t="n">
-        <v>971</v>
+        <v>1364</v>
       </c>
       <c r="L70" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>14</v>
+        <v/>
+      </c>
+      <c r="N70" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O70" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P70" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q70" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R70" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S70" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>cepillos-limpiamamadera-con-mango</t>
+          <t>mordillo-refrigerante</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>CEPILLOS LIMPIAMAMADERA CON MANGO</t>
+          <t>Mordillo refrigerante</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>CEPILLOS LIMPIAMAMADERA CON MANGO</t>
+          <t>MORDILLO REFRIGERANTE TRADICIONAL</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Teddy261</t>
+          <t>Teddy273</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>273</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>7791398002617</t>
+          <t>7791398022738</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>7791398002617</t>
+          <t>7791398022738</t>
         </is>
       </c>
       <c r="I71" s="2" t="n">
-        <v>804</v>
+        <v>1185</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>919</v>
+        <v>1185</v>
       </c>
       <c r="K71" s="2" t="n">
-        <v>884</v>
+        <v>1304</v>
       </c>
       <c r="L71" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M71" s="2" t="n">
-        <v>14</v>
+      <c r="M71" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mordillos y Sonajeros</t>
+        </is>
+      </c>
+      <c r="N71" s="2" t="inlineStr">
+        <is>
+          <t>bebes, mordillo refrigerante</t>
+        </is>
+      </c>
+      <c r="O71" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P71" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q71" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R71" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: Anillo refrigerante de E.V.A (Etileno y Acetato de vinilo) Agua tratada, no tóxica. Mango de poliestireno. Tintas y/o pigmentos no tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: Lavar con agua y detergente suave. Guardar en heladera en recipiente limpio con tapa.&lt;br /&gt;
+&lt;br /&gt;
+Usar estando refrigerado. No colocar en congelador / freezer. Esterilizar en frío. No hervir.&lt;br /&gt;
+&lt;br /&gt;
+Alivia las molestias de las encías inflamadas por la dentición, ya que el material blando y granulado del anillo ayuda a que se fije en la encía cuando lo muerde, sumándose con el frío un efecto calmante.&lt;br /&gt;
+&lt;br /&gt;
+Al moverlo podrá escuchar un suave tintineo que llamar su atención.</t>
+        </is>
+      </c>
+      <c r="S71" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>PLATO-TERMICO-3-DIVISIONES</t>
+          <t>chupete-decorado-con-tetina-de-silicona</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>PLATO TÉRMICO 3 DIVISIONES</t>
+          <t>Chupete decorado con tetina de silicona</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>PLATO TÉRMICO 3 DIVISIONES</t>
+          <t>CHUP. DECORADO TET. SILICONA</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr"/>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Teddy415</t>
+          <t>Teddy281</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>281</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>7791398091505</t>
+          <t>7791398022813</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>7791398091505</t>
+          <t>7791398022813</t>
         </is>
       </c>
       <c r="I72" s="2" t="n">
-        <v>1887</v>
+        <v>1010</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>2153</v>
+        <v>1010</v>
       </c>
       <c r="K72" s="2" t="n">
-        <v>2076</v>
+        <v>1111</v>
       </c>
       <c r="L72" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M72" s="2" t="n">
-        <v>14</v>
+      <c r="M72" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N72" s="2" t="inlineStr">
+        <is>
+          <t>bebes, chupete decorado, tetina silicona</t>
+        </is>
+      </c>
+      <c r="O72" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P72" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q72" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R72" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: Tetina de silicona. Escudo, Botón, Aro y Protector de polipropileno. Decorado con tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: antes del primer uso, lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado.&lt;br /&gt;
+&lt;br /&gt;
+No exponer al sol. No untar con sustancias dulces.&lt;br /&gt;
+&lt;br /&gt;
+No colgar el chupete alrededor del cuello durante el sueño.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.</t>
+        </is>
+      </c>
+      <c r="S72" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>chupete-recien-nacido-con-tetina-latex-2-unidades</t>
+          <t>cambiador-plastico</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>Chupete recien nacido con tetina latex (2 unidades)</t>
+          <t>Cambiador plastico</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>CHUP. RECIÉN NACIDO TETINA LATEX (2 UNIDADES)</t>
+          <t>CAMBIADOR PLASTICO</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Teddy28</t>
+          <t>Teddy403</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>403</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>7791398022806</t>
+          <t>7791398004031</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>7791398022806</t>
+          <t>7791398004031</t>
         </is>
       </c>
       <c r="I73" s="2" t="n">
-        <v>1191</v>
+        <v>1899</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>1355</v>
+        <v>1899</v>
       </c>
       <c r="K73" s="2" t="n">
-        <v>1310</v>
+        <v>2089</v>
       </c>
       <c r="L73" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M73" s="2" t="n">
-        <v>14</v>
+      <c r="M73" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Textil y Ropa</t>
+        </is>
+      </c>
+      <c r="N73" s="2" t="inlineStr">
+        <is>
+          <t>bebes, cambiador plastico</t>
+        </is>
+      </c>
+      <c r="O73" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P73" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q73" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R73" s="2" t="inlineStr">
+        <is>
+          <t>Cambiador totalmente impermeable.&lt;br /&gt;
+Medidas 40x70 cms (abierto) y 24x27 cms (cerrado).&lt;br /&gt;
+Fácil limpieza.&lt;br /&gt;
+Materiales: tela plástica, relleno de guata.</t>
+        </is>
+      </c>
+      <c r="S73" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>tetina-de-latex-1-unidad</t>
+          <t>teddy-portamamadera</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>Tetina de latex (1 unidad)</t>
+          <t>Teddy - Portamamadera</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>TETINA LÁTEX X 1</t>
+          <t>PORTAMAMADERA DECORADO</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Teddy2061</t>
+          <t>Teddy306</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>2061</t>
+          <t>306</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>7791398020611</t>
+          <t>7791398003065</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>7791398020611</t>
+          <t>7791398003065</t>
         </is>
       </c>
       <c r="I74" s="2" t="n">
-        <v>550</v>
+        <v>968</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>623</v>
+        <v>968</v>
       </c>
       <c r="K74" s="2" t="n">
-        <v>605</v>
+        <v>1065</v>
       </c>
       <c r="L74" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M74" s="2" t="n">
-        <v>13</v>
+      <c r="M74" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mamaderas y Biberones</t>
+        </is>
+      </c>
+      <c r="N74" s="2" t="inlineStr">
+        <is>
+          <t>bebes, Teddy portamamadera</t>
+        </is>
+      </c>
+      <c r="O74" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P74" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q74" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R74" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Cilindro contenedor para Biber&amp;oacute;n Tradicional. Conserva la temperatura del alimento por varias horas.&lt;br /&gt;
+&lt;br /&gt;
+Materiales: Poliestireno expandido (telgopor)&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S74" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>tetina-tradicional-de-silicona-2-unidades</t>
+          <t>chup-total-de-silicona-anatomico</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Tetina tradicional de silicona (2 unidades)</t>
+          <t>CHUP. TOTAL DE SILICONA ANATÓMICO</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>TETINA CRISTAL X 2 (SILIC)</t>
+          <t xml:space="preserve">CHUP. TOTAL DE SILICONA ANATÓMICO  </t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Teddy206</t>
+          <t>Teddy287</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>287</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>7791398090607</t>
+          <t>7791398022875</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>7791398090607</t>
+          <t>7791398022875</t>
         </is>
       </c>
       <c r="I75" s="2" t="n">
-        <v>943</v>
+        <v>1137</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>1064</v>
+        <v>1137</v>
       </c>
       <c r="K75" s="2" t="n">
-        <v>1037</v>
+        <v>1251</v>
       </c>
       <c r="L75" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M75" s="2" t="n">
-        <v>13</v>
+      <c r="M75" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N75" s="2" t="inlineStr">
+        <is>
+          <t>bebes, chupete total silicona anatomico</t>
+        </is>
+      </c>
+      <c r="O75" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P75" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q75" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R75" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: silicona.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: antes del primer uso, lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado.&lt;br /&gt;
+&lt;br /&gt;
+No exponer al sol. No untar con sustancias dulces.&lt;br /&gt;
+&lt;br /&gt;
+No colgar el chupete alrededor del cuello durante el sueño.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.</t>
+        </is>
+      </c>
+      <c r="S75" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>BABITAS-X-2-UNIDADES</t>
+          <t>chupete-100-silicona-redondo</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>BABITAS X 2 UNIDADES</t>
+          <t>Chupete 100% silicona redondo</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>BABITAS X 2 UNIDADES</t>
+          <t>CHUP. TOTAL DE SILICONA REDONDO</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Teddy6253</t>
+          <t>Teddy286</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>6253</t>
+          <t>286</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>7791398062536</t>
+          <t>7791398022868</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>7791398062536</t>
+          <t>7791398022868</t>
         </is>
       </c>
       <c r="I76" s="2" t="n">
-        <v>1331</v>
+        <v>1137</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>1500</v>
+        <v>1137</v>
       </c>
       <c r="K76" s="2" t="n">
-        <v>1464</v>
+        <v>1251</v>
       </c>
       <c r="L76" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M76" s="2" t="n">
-        <v>13</v>
+      <c r="M76" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N76" s="2" t="inlineStr">
+        <is>
+          <t>bebes, chupete 100% silicona redondo</t>
+        </is>
+      </c>
+      <c r="O76" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P76" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q76" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R76" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: silicona.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: antes del primer uso, lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado.&lt;br /&gt;
+&lt;br /&gt;
+No exponer al sol. No untar con sustancias dulces.&lt;br /&gt;
+&lt;br /&gt;
+No colgar el chupete alrededor del cuello durante el sueño.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.</t>
+        </is>
+      </c>
+      <c r="S76" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>Ajuar-Grande</t>
+          <t>mordillo-refrigerante-color</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>Ajuar Grande</t>
+          <t>Mordillo refrigerante color</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Ajuar Grande</t>
+          <t>MORDILLO REFRIGERANTE TRAD. COLOR</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Teddy912</t>
+          <t>Teddy274</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>274</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>7791398009128</t>
+          <t>7791398022745</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>7791398009128</t>
+          <t>7791398022745</t>
         </is>
       </c>
       <c r="I77" s="2" t="n">
-        <v>7223</v>
+        <v>1210</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>8107</v>
+        <v>1210</v>
       </c>
       <c r="K77" s="2" t="n">
-        <v>7945</v>
+        <v>1331</v>
       </c>
       <c r="L77" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M77" s="2" t="n">
-        <v>12</v>
+      <c r="M77" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mordillos y Sonajeros</t>
+        </is>
+      </c>
+      <c r="N77" s="2" t="inlineStr">
+        <is>
+          <t>bebes, mordillo refrigerante color</t>
+        </is>
+      </c>
+      <c r="O77" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P77" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q77" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R77" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: Anillo refrigerante de E.V.A (Etileno y Acetato de vinilo) Agua tratada, no tóxica. Mango de poliestireno. Tintas y/o pigmentos no tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: Lavar con agua y detergente suave. Guardar en heladera en recipiente limpio con tapa.&lt;br /&gt;
+&lt;br /&gt;
+Usar estando refrigerado. No colocar en congelador / freezer. Esterilizar en frío. No hervir.&lt;br /&gt;
+&lt;br /&gt;
+Alivia las molestias de las encías inflamadas por la dentición, ya que el material blando y granulado del anillo ayuda a que se fije en la encía cuando lo muerde, sum?ndose con el frío un efecto calmante.&lt;br /&gt;
+&lt;br /&gt;
+Al moverlo podrá escuchar un suave tintineo que llamar su atención.</t>
+        </is>
+      </c>
+      <c r="S77" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>Ajuar-Chico</t>
+          <t>chupete-cristal-con-tetina-de-latex</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Ajuar Chico</t>
+          <t>Chupete cristal con tetina de latex</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Ajuar Chico</t>
+          <t>CHUP. TRANSPARENTE TETINA LÁTEX</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Teddy91</t>
+          <t>Teddy282</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>282</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>7791398009104</t>
+          <t>779139802282</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>7791398009104</t>
+          <t>779139802282</t>
         </is>
       </c>
       <c r="I78" s="2" t="n">
-        <v>5783</v>
+        <v>871</v>
       </c>
       <c r="J78" s="2" t="n">
-        <v>6485</v>
+        <v>871</v>
       </c>
       <c r="K78" s="2" t="n">
-        <v>6361</v>
+        <v>958</v>
       </c>
       <c r="L78" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M78" s="2" t="n">
-        <v>12</v>
+      <c r="M78" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N78" s="2" t="inlineStr">
+        <is>
+          <t>bebes, chupete cristal, tetina latex</t>
+        </is>
+      </c>
+      <c r="O78" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P78" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q78" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R78" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S78" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>estuche-regalo-c-plato-termico-sin-div</t>
+          <t>chupete-cristal-con-tetina-de-silicona</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>ESTUCHE REGALO C/PLATO TÉRMICO SIN DIV.</t>
+          <t>Chupete cristal con tetina de silicona</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>ESTUCHE REGALO C/PLATO TÉRMICO SIN DIV.</t>
+          <t>CHUP. TRANSPARENTE TETINA SILICONA</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Teddy245</t>
+          <t>Teddy283</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>283</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>7791398002457</t>
+          <t>7791398022837</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>7791398002457</t>
+          <t>7791398022837</t>
         </is>
       </c>
       <c r="I79" s="2" t="n">
-        <v>1996</v>
+        <v>1046</v>
       </c>
       <c r="J79" s="2" t="n">
-        <v>2238</v>
+        <v>1046</v>
       </c>
       <c r="K79" s="2" t="n">
-        <v>2196</v>
+        <v>1151</v>
       </c>
       <c r="L79" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M79" s="2" t="n">
-        <v>12</v>
+      <c r="M79" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N79" s="2" t="inlineStr">
+        <is>
+          <t>bebes, chupete cristal, tetina silicona</t>
+        </is>
+      </c>
+      <c r="O79" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P79" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q79" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R79" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S79" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>cambiador-plastico</t>
+          <t>chupete-recien-nacido-con-tetina-latex-2-unidades</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>Cambiador plastico</t>
+          <t>Chupete recien nacido con tetina latex (2 unidades)</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>CAMBIADOR PLASTICO</t>
+          <t>CHUP. RECIÉN NACIDO TETINA LATEX (2 UNIDADES)</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Teddy403</t>
+          <t>Teddy28</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>7791398004031</t>
+          <t>7791398022806</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>7791398004031</t>
+          <t>7791398022806</t>
         </is>
       </c>
       <c r="I80" s="2" t="n">
-        <v>1694</v>
+        <v>1355</v>
       </c>
       <c r="J80" s="2" t="n">
-        <v>1899</v>
+        <v>1355</v>
       </c>
       <c r="K80" s="2" t="n">
-        <v>1863</v>
+        <v>1491</v>
       </c>
       <c r="L80" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M80" s="2" t="n">
-        <v>12</v>
+      <c r="M80" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N80" s="2" t="inlineStr">
+        <is>
+          <t>2 unidades, bebes, chupete recien nacido, tetina latex</t>
+        </is>
+      </c>
+      <c r="O80" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P80" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q80" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R80" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: Tetina de látex. Escudo, Botón, Aro y Protector de polipropileno. Decorado con tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: antes del primer uso, lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado.&lt;br /&gt;
+&lt;br /&gt;
+No exponer al sol. No untar con sustancias dulces.&lt;br /&gt;
+&lt;br /&gt;
+No colgar el chupete alrededor del cuello durante el sueño.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.</t>
+        </is>
+      </c>
+      <c r="S80" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>BABERO-TOWEL-CHICO</t>
+          <t>chupete-bicolor-con-tetina-de-silicona</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>BABERO TOWEL CHICO</t>
+          <t>Chupete bicolor con tetina de silicona</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>BABERO TOWEL CHICO</t>
+          <t>CHUP. BICOLOR TET. SILICONA</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Teddy625</t>
+          <t>Teddy279</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>279</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>7791398062505</t>
+          <t>779139802279</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>7791398062505</t>
+          <t>779139802279</t>
         </is>
       </c>
       <c r="I81" s="2" t="n">
-        <v>605</v>
+        <v>955</v>
       </c>
       <c r="J81" s="2" t="n">
-        <v>677</v>
+        <v>955</v>
       </c>
       <c r="K81" s="2" t="n">
-        <v>666</v>
+        <v>1050</v>
       </c>
       <c r="L81" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M81" s="2" t="n">
-        <v>12</v>
+      <c r="M81" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N81" s="2" t="inlineStr">
+        <is>
+          <t>bebes, chupete bicolor, tetina silicona</t>
+        </is>
+      </c>
+      <c r="O81" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P81" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q81" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R81" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Materiales: Tetina de silicona. Escudo, Botón, Aro y Protector de polipropileno. Decorado con tintas y/o pigmentos No tóxicos. Forma de uso: antes del primer uso, lavar con agua y detergente suave. Esterilizar hirviendo durante 5 minutos en recipiente destapado. No exponer al sol. No untar con sustancias dulces. No colgar el chupete alrededor del cuello durante el sueño. Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.&lt;br /&gt;
+</t>
+        </is>
+      </c>
+      <c r="S81" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>PLATO-TeRMICO-SIN-DIVISIONES</t>
+          <t>chupete-decorado-con-tetina-de-latex</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>PLATO TÉRMICO SIN DIVISIONES</t>
+          <t>Chupete decorado con tetina de latex</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>PLATO TÉRMICO SIN DIVISIONES</t>
+          <t>CHUP. DECORADO TET. LÁTEX</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Teddy4151</t>
+          <t>Teddy276</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>4151</t>
+          <t>276</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>7791398041517</t>
+          <t>7791398022769</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>7791398041517</t>
+          <t>7791398022769</t>
         </is>
       </c>
       <c r="I82" s="2" t="n">
-        <v>1409</v>
+        <v>889</v>
       </c>
       <c r="J82" s="2" t="n">
-        <v>1573</v>
+        <v>889</v>
       </c>
       <c r="K82" s="2" t="n">
-        <v>1550</v>
+        <v>978</v>
       </c>
       <c r="L82" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M82" s="2" t="n">
-        <v>12</v>
+      <c r="M82" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N82" s="2" t="inlineStr">
+        <is>
+          <t>bebes, chupete decorado, tetina latex</t>
+        </is>
+      </c>
+      <c r="O82" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P82" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q82" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R82" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: Tetina de l&amp;aacute;tex. Escudo, Bot&amp;oacute;n, Aro y Protector de polipropileno. Decorado con tintas y/o pigmentos No t&amp;oacute;xicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: antes del primer uso, lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado.&lt;br /&gt;
+&lt;br /&gt;
+No exponer al sol. No untar con sustancias dulces.&lt;br /&gt;
+&lt;br /&gt;
+No colgar el chupete alrededor del cuello durante el sue&amp;ntilde;o.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S82" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>BANDANA-X-1-UNIDAD</t>
+          <t>chupete-bicolor-con-tetina-latex</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>BANDANA X 1 UNIDAD</t>
+          <t>Chupete bicolor con tetina latex</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>BANDANA X 1 UNIDAD</t>
+          <t>CHUP. BICOLOR TET. LÁTEX</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Teddy6252</t>
+          <t>Teddy277</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>6252</t>
+          <t>277</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>7791398062529</t>
+          <t>7791398022776</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>7791398062529</t>
+          <t>7791398022776</t>
         </is>
       </c>
       <c r="I83" s="2" t="n">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="J83" s="2" t="n">
-        <v>943</v>
+        <v>865</v>
       </c>
       <c r="K83" s="2" t="n">
-        <v>932</v>
+        <v>952</v>
       </c>
       <c r="L83" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M83" s="2" t="n">
-        <v>11</v>
+      <c r="M83" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N83" s="2" t="inlineStr">
+        <is>
+          <t>bebes, chupete bicolor, tetina latex</t>
+        </is>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P83" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q83" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R83" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Materiales: Tetina de látex. Escudo, Botón, Aro y Protector de polipropileno. Decorado con tintas y/o pigmentos No tóxicos. Forma de uso: antes del primer uso, lavar con agua y detergente suave. Esterilizar hirviendo durante 5 minutos en recipiente destapado. No exponer al sol. No untar con sustancias dulces. No colgar el chupete alrededor del cuello durante el sueño. Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.&lt;br /&gt;
+</t>
+        </is>
+      </c>
+      <c r="S83" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>esponja-bebe</t>
+          <t>chupete-recien-nacido-con-tetina-de-silicona-2-unidades</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Esponja Bebe</t>
+          <t>Chupete recien nacido con tetina de silicona (2 unidades)</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>ESPONJA BEBE</t>
+          <t>CHUP. RECIÉN NACIDO TETINA SILICONA (2 UNIDADES)</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr"/>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Teddy255</t>
+          <t>Teddy278</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>278</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>7791398002556</t>
+          <t>7791398022783</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>7791398002556</t>
+          <t>7791398022783</t>
         </is>
       </c>
       <c r="I84" s="2" t="n">
-        <v>635</v>
+        <v>1476</v>
       </c>
       <c r="J84" s="2" t="n">
-        <v>689</v>
+        <v>1476</v>
       </c>
       <c r="K84" s="2" t="n">
-        <v>699</v>
+        <v>1624</v>
       </c>
       <c r="L84" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M84" s="2" t="n">
-        <v>9</v>
+      <c r="M84" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N84" s="2" t="inlineStr">
+        <is>
+          <t>2 unidades, bebes, chupete recien nacido, tetina silicona</t>
+        </is>
+      </c>
+      <c r="O84" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P84" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q84" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R84" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: Tetina de silicona. Escudo, Botón, Aro y Protector de polipropileno. Decorado con tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: antes del primer uso, lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado.&lt;br /&gt;
+&lt;br /&gt;
+No exponer al sol. No untar con sustancias dulces.&lt;br /&gt;
+&lt;br /&gt;
+No colgar el chupete alrededor del cuello durante el sueño.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.</t>
+        </is>
+      </c>
+      <c r="S84" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4960,7 +7180,34 @@
       <c r="L85" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M85" s="2" t="n">
+      <c r="M85" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mamaderas y Biberones</t>
+        </is>
+      </c>
+      <c r="N85" s="2" t="inlineStr">
+        <is>
+          <t>250 ml, bebes, biberon boca ancha con asas</t>
+        </is>
+      </c>
+      <c r="O85" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P85" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q85" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R85" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: Botella, Rosca, Tapa, Capuch&amp;oacute;n y Asas de polipropileno Tetina de silicona. Decorado con tintas y/o pigmentos No t&amp;oacute;xicos. Forma de uso: lavar todas las partes con agua y detergente suave. Esterilizar hirviendo durante 5 minutos en recipiente destapado, durante al menos los primeros 6 meses de vida, ya que las defensas del beb&amp;eacute; no est&amp;aacute;n a&amp;uacute;n totalmente desarrolladas. Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura. Reemplazar ante el menor signo de deterioro. Verificar siempre la temperatura del alimento antes de ofrec&amp;eacute;rcelo al beb&amp;eacute;, vertiendo unas gotas sobre la cara interna de la mu&amp;ntilde;eca, se deber&amp;aacute; sentir que est&amp;aacute; templada. Ofrecer la mamadera al beb&amp;eacute; en posici&amp;oacute;n semi-sentado, para disminu&amp;iacute;r el riesgo de otitis, ya que si el beb&amp;eacute; permanece acostado, aumenta el riesgo que algo de l&amp;iacute;quido se introduzca en la Trompa de Eustaquio y provoque inflamaci&amp;oacute;n. No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S85" s="2" t="n">
         <v>-87</v>
       </c>
     </row>
@@ -5013,537 +7260,833 @@
       <c r="L86" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M86" s="2" t="n">
+      <c r="M86" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N86" s="2" t="inlineStr">
+        <is>
+          <t>bebes, chupete nocturno sin aro, tetina latex</t>
+        </is>
+      </c>
+      <c r="O86" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P86" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q86" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R86" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: Tetina de látex. Escudo, Botón y Aro de polipropileno. Decorado con tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: antes del primer uso, lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado. &lt;br /&gt;
+&lt;br /&gt;
+No exponer al sol. No untar con sustancias dulces.&lt;br /&gt;
+&lt;br /&gt;
+No colgar el chupete alrededor del cuello durante el sueño.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.</t>
+        </is>
+      </c>
+      <c r="S86" s="2" t="n">
         <v>-100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>cepillo-limpiamamadera</t>
+          <t>chupete-nocturno-sin-aro-con-tetina-de-silicona</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>Cepillo limpiamamadera</t>
+          <t>Chupete nocturno sin aro con tetina de silicona</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>CEPILLOS LIMPIAMAMADERA</t>
+          <t>CHUP. NOCTURNO TETINA SILICONA</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr"/>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Teddy26</t>
+          <t>Teddy285</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>285</t>
         </is>
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>77913980026</t>
+          <t>7791398022851</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>77913980026</t>
+          <t>7791398022851</t>
         </is>
       </c>
       <c r="I87" s="2" t="n">
-        <v>647</v>
+        <v>883</v>
       </c>
       <c r="J87" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K87" s="2" t="n">
-        <v>712</v>
+        <v>971</v>
       </c>
       <c r="L87" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M87" s="2" t="n">
+      <c r="M87" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N87" s="2" t="inlineStr">
+        <is>
+          <t>bebes, chupete nocturno sin aro, tetina silicona</t>
+        </is>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P87" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q87" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R87" s="2" t="inlineStr">
+        <is>
+          <t>Materiales: Tetina de silicona. Escudo, Botón y Aro de polipropileno. Decorado con tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: antes del primer uso, lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado.&lt;br /&gt;
+&lt;br /&gt;
+No exponer al sol. No untar con sustancias dulces.&lt;br /&gt;
+&lt;br /&gt;
+No colgar el chupete alrededor del cuello durante el sueño.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.</t>
+        </is>
+      </c>
+      <c r="S87" s="2" t="n">
         <v>-100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>chupete-nocturno-sin-aro-con-tetina-de-silicona</t>
+          <t>juguera-rec-crist-c-asas-140ml-c-flujos</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Chupete nocturno sin aro con tetina de silicona</t>
+          <t>JUGUERA REC. CRIST. C/ASAS 140ml c/flujos</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>CHUP. NOCTURNO TETINA SILICONA</t>
+          <t>JUGUERA REC. CRIST. C/ASAS 140ml c/flujos</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr"/>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Teddy285</t>
+          <t>Teddy1205</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>7791398022851</t>
+          <t>779139801205</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>7791398022851</t>
+          <t>779139801205</t>
         </is>
       </c>
       <c r="I88" s="2" t="n">
-        <v>883</v>
+        <v>792</v>
       </c>
       <c r="J88" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K88" s="2" t="n">
-        <v>971</v>
+        <v>871</v>
       </c>
       <c r="L88" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M88" s="2" t="n">
+        <v/>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P88" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q88" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R88" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S88" s="2" t="n">
         <v>-100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>cepillo-dental-infantil-porta1</t>
+          <t>TAZA-CON-ASA</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>Cepillo dental infantil + porta</t>
+          <t>TAZA CON ASA</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>PORTA CEPILLO DENTAL</t>
+          <t>TAZA CON ASA</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr"/>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Teddy218</t>
+          <t>Teddy4081</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>7791398022189</t>
+          <t>7791398002709</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>7791398022189</t>
+          <t>7791398002709</t>
         </is>
       </c>
       <c r="I89" s="2" t="n">
-        <v>689</v>
+        <v>405</v>
       </c>
       <c r="J89" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K89" s="2" t="n">
-        <v>758</v>
+        <v>446</v>
       </c>
       <c r="L89" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M89" s="2" t="n">
+        <v/>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P89" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q89" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R89" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S89" s="2" t="n">
         <v>-100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>tetina-de-silicona-1-unidad</t>
+          <t>chup-anatomico-latex</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>Tetina de silicona (1 unidad)</t>
+          <t>CHUP. ANATOMICO LÁTEX</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>TETINA CRISTAL X 1 (SILIC)</t>
+          <t>CHUP. ANATOMICO LÁTEX</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr"/>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Teddy2062</t>
+          <t>Teddy224</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>2062</t>
+          <t>224</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>7791398020628</t>
+          <t>7791398002242</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>7791398020628</t>
+          <t>7791398002242</t>
         </is>
       </c>
       <c r="I90" s="2" t="n">
-        <v>574</v>
+        <v>502</v>
       </c>
       <c r="J90" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K90" s="2" t="n">
-        <v>631</v>
+        <v>552</v>
       </c>
       <c r="L90" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M90" s="2" t="n">
+      <c r="M90" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios</t>
+        </is>
+      </c>
+      <c r="N90" s="2" t="inlineStr">
+        <is>
+          <t>bebes, chupete anatomico, latex</t>
+        </is>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P90" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q90" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R90" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S90" s="2" t="n">
         <v>-100</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>biberon-recto-cristal-con-tetina-de-latex-250-ml</t>
+          <t>teddy-chupete-redondo-tetina-latex</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>Biberon recto cristal con tetina de latex 250 ml</t>
+          <t>Teddy - Chupete redondo tetina latex</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>MAMADERA RECTA CRIST. LÁT.250ml c/flujos</t>
+          <t>CHUP. REDONDO TETINA LÁTEX</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr"/>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Teddy1202</t>
+          <t>Teddy223</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>223</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>7791398012029</t>
+          <t>7791398002235</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>7791398012029</t>
+          <t>7791398002235</t>
         </is>
       </c>
       <c r="I91" s="2" t="n">
-        <v>798</v>
+        <v>502</v>
       </c>
       <c r="J91" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K91" s="2" t="n">
-        <v>878</v>
+        <v>552</v>
       </c>
       <c r="L91" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M91" s="2" t="n">
+      <c r="M91" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios</t>
+        </is>
+      </c>
+      <c r="N91" s="2" t="inlineStr">
+        <is>
+          <t>bebes, chupete redondo, tetina latex</t>
+        </is>
+      </c>
+      <c r="O91" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P91" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q91" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R91" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S91" s="2" t="n">
         <v>-100</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>juguera-rec-crist-c-asas-140ml-c-flujos</t>
+          <t>cepillo-dental-infantil-porta1</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>JUGUERA REC. CRIST. C/ASAS 140ml c/flujos</t>
+          <t>Cepillo dental infantil + porta</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>JUGUERA REC. CRIST. C/ASAS 140ml c/flujos</t>
+          <t>PORTA CEPILLO DENTAL</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr"/>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Teddy1205</t>
+          <t>Teddy218</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>218</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>779139801205</t>
+          <t>7791398022189</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>779139801205</t>
+          <t>7791398022189</t>
         </is>
       </c>
       <c r="I92" s="2" t="n">
-        <v>792</v>
+        <v>689</v>
       </c>
       <c r="J92" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K92" s="2" t="n">
-        <v>871</v>
+        <v>758</v>
       </c>
       <c r="L92" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M92" s="2" t="n">
+      <c r="M92" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Higiene Personal</t>
+        </is>
+      </c>
+      <c r="N92" s="2" t="inlineStr">
+        <is>
+          <t>bebes, cepillo dental infantil + porta</t>
+        </is>
+      </c>
+      <c r="O92" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P92" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q92" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R92" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S92" s="2" t="n">
         <v>-100</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>TAZA-CON-ASA</t>
+          <t>biberon-recto-cristal-con-tetina-de-latex-250-ml</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>TAZA CON ASA</t>
+          <t>Biberon recto cristal con tetina de latex 250 ml</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>TAZA CON ASA</t>
+          <t>MAMADERA RECTA CRIST. LÁT.250ml c/flujos</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr"/>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Teddy4081</t>
+          <t>Teddy1202</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>4081</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>7791398002709</t>
+          <t>7791398012029</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>7791398002709</t>
+          <t>7791398012029</t>
         </is>
       </c>
       <c r="I93" s="2" t="n">
-        <v>405</v>
+        <v>798</v>
       </c>
       <c r="J93" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K93" s="2" t="n">
-        <v>446</v>
+        <v>878</v>
       </c>
       <c r="L93" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M93" s="2" t="n">
+      <c r="M93" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mamaderas y Biberones</t>
+        </is>
+      </c>
+      <c r="N93" s="2" t="inlineStr">
+        <is>
+          <t>250 ml, bebes, biberon recto cristal, tetina latex</t>
+        </is>
+      </c>
+      <c r="O93" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P93" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q93" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R93" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: Botella, Rosca, Tapa y Capuch&amp;oacute;n de polipropileno Tetina de l&amp;aacute;tex. Forma de uso: lavar todas las partes con agua y detergente suave. Esterilizar hirviendo durante 5 minutos en recipiente destapado. Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura. Reemplazar ante el menor signo de deterioro. Verificar siempre la temperatura del alimento antes de ofrec&amp;eacute;rcelo al beb&amp;eacute;. Ofrecer la mamadera al beb&amp;eacute; en posici&amp;oacute;n semi-sentado, para disminu&amp;iacute;r el riesgo de otitis. No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S93" s="2" t="n">
         <v>-100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>chup-anatomico-latex</t>
+          <t>cepillo-limpiamamadera</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>CHUP. ANATOMICO LÁTEX</t>
+          <t>Cepillo limpiamamadera</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>CHUP. ANATOMICO LÁTEX</t>
+          <t>CEPILLOS LIMPIAMAMADERA</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr"/>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Teddy224</t>
+          <t>Teddy26</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>7791398002242</t>
+          <t>77913980026</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>7791398002242</t>
+          <t>77913980026</t>
         </is>
       </c>
       <c r="I94" s="2" t="n">
-        <v>502</v>
+        <v>647</v>
       </c>
       <c r="J94" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K94" s="2" t="n">
-        <v>552</v>
+        <v>712</v>
       </c>
       <c r="L94" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M94" s="2" t="n">
+      <c r="M94" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Mamaderas y Biberones</t>
+        </is>
+      </c>
+      <c r="N94" s="2" t="inlineStr">
+        <is>
+          <t>bebes, cepillo limpiamamadera</t>
+        </is>
+      </c>
+      <c r="O94" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P94" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q94" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R94" s="2" t="inlineStr">
+        <is>
+          <t>Cepillo especialmente diseñado para la limpieza del cuerpo del biberón, ya que permite remover los restos de leche ó jugo, adheridos al mismo.&lt;br /&gt;
+&lt;br /&gt;
+Materiales: Alambre galvanizado forrado, y filamentos de polipropileno.</t>
+        </is>
+      </c>
+      <c r="S94" s="2" t="n">
         <v>-100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>chup-redondo-tetina-latex1</t>
+          <t>cambiador-plastico-de-cartera</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>CHUP. REDONDO TETINA LÁTEX</t>
+          <t>CAMBIADOR PLASTICO DE CARTERA</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>CHUP. REDONDO TETINA LÁTEX</t>
+          <t>CAMBIADOR PLASTICO DE CARTERA</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr"/>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Teddy223</t>
+          <t>Teddy404</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>404</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>7791398002235</t>
+          <t>7791398004048</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>7791398002235</t>
+          <t>7791398004048</t>
         </is>
       </c>
       <c r="I95" s="2" t="n">
-        <v>502</v>
+        <v>1149</v>
       </c>
       <c r="J95" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K95" s="2" t="n">
-        <v>552</v>
+        <v>1264</v>
       </c>
       <c r="L95" s="2" t="n">
         <v>100</v>
       </c>
       <c r="M95" s="2" t="n">
+        <v/>
+      </c>
+      <c r="N95" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O95" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P95" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q95" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R95" s="2" t="n">
+        <v/>
+      </c>
+      <c r="S95" s="2" t="n">
         <v>-100</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>cambiador-plastico-de-cartera</t>
+          <t>tetina-de-silicona-1-unidad</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>CAMBIADOR PLASTICO DE CARTERA</t>
+          <t>Tetina de silicona (1 unidad)</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>CAMBIADOR PLASTICO DE CARTERA</t>
+          <t>TETINA CRISTAL X 1 (SILIC)</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr"/>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Teddy404</t>
+          <t>Teddy2062</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>2062</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>7791398004048</t>
+          <t>7791398020628</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>7791398004048</t>
+          <t>7791398020628</t>
         </is>
       </c>
       <c r="I96" s="2" t="n">
-        <v>1149</v>
+        <v>574</v>
       </c>
       <c r="J96" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K96" s="2" t="n">
-        <v>1264</v>
+        <v>631</v>
       </c>
       <c r="L96" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="M96" s="2" t="n">
+      <c r="M96" s="2" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Accesorios &gt; Chupetes - Tetinas - Portachupetes</t>
+        </is>
+      </c>
+      <c r="N96" s="2" t="inlineStr">
+        <is>
+          <t>1 unidad, bebes, tetina silicona</t>
+        </is>
+      </c>
+      <c r="O96" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P96" s="2" t="n">
+        <v/>
+      </c>
+      <c r="Q96" s="2" t="inlineStr">
+        <is>
+          <t>Teddy</t>
+        </is>
+      </c>
+      <c r="R96" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Materiales: Silicona&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura.&lt;br /&gt;
+&lt;br /&gt;
+Reemplazar ante el menor signo de deterioro.&lt;br /&gt;
+&lt;br /&gt;
+No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="S96" s="2" t="n">
         <v>-100</v>
       </c>
     </row>
@@ -5576,7 +8119,13 @@
       </c>
       <c r="K97" s="2" t="n"/>
       <c r="L97" s="2" t="n"/>
-      <c r="M97" s="2" t="n">
+      <c r="M97" s="2" t="n"/>
+      <c r="N97" s="2" t="n"/>
+      <c r="O97" s="2" t="n"/>
+      <c r="P97" s="2" t="n"/>
+      <c r="Q97" s="2" t="n"/>
+      <c r="R97" s="2" t="n"/>
+      <c r="S97" s="2" t="n">
         <v/>
       </c>
     </row>
@@ -5609,7 +8158,13 @@
       </c>
       <c r="K98" s="2" t="n"/>
       <c r="L98" s="2" t="n"/>
-      <c r="M98" s="2" t="n">
+      <c r="M98" s="2" t="n"/>
+      <c r="N98" s="2" t="n"/>
+      <c r="O98" s="2" t="n"/>
+      <c r="P98" s="2" t="n"/>
+      <c r="Q98" s="2" t="n"/>
+      <c r="R98" s="2" t="n"/>
+      <c r="S98" s="2" t="n">
         <v/>
       </c>
     </row>
@@ -5642,7 +8197,13 @@
       </c>
       <c r="K99" s="2" t="n"/>
       <c r="L99" s="2" t="n"/>
-      <c r="M99" s="2" t="n">
+      <c r="M99" s="2" t="n"/>
+      <c r="N99" s="2" t="n"/>
+      <c r="O99" s="2" t="n"/>
+      <c r="P99" s="2" t="n"/>
+      <c r="Q99" s="2" t="n"/>
+      <c r="R99" s="2" t="n"/>
+      <c r="S99" s="2" t="n">
         <v/>
       </c>
     </row>
@@ -5675,7 +8236,13 @@
       </c>
       <c r="K100" s="2" t="n"/>
       <c r="L100" s="2" t="n"/>
-      <c r="M100" s="2" t="n">
+      <c r="M100" s="2" t="n"/>
+      <c r="N100" s="2" t="n"/>
+      <c r="O100" s="2" t="n"/>
+      <c r="P100" s="2" t="n"/>
+      <c r="Q100" s="2" t="n"/>
+      <c r="R100" s="2" t="n"/>
+      <c r="S100" s="2" t="n">
         <v/>
       </c>
     </row>
@@ -5708,7 +8275,13 @@
       </c>
       <c r="K101" s="2" t="n"/>
       <c r="L101" s="2" t="n"/>
-      <c r="M101" s="2" t="n">
+      <c r="M101" s="2" t="n"/>
+      <c r="N101" s="2" t="n"/>
+      <c r="O101" s="2" t="n"/>
+      <c r="P101" s="2" t="n"/>
+      <c r="Q101" s="2" t="n"/>
+      <c r="R101" s="2" t="n"/>
+      <c r="S101" s="2" t="n">
         <v/>
       </c>
     </row>
@@ -5741,7 +8314,13 @@
       </c>
       <c r="K102" s="2" t="n"/>
       <c r="L102" s="2" t="n"/>
-      <c r="M102" s="2" t="n">
+      <c r="M102" s="2" t="n"/>
+      <c r="N102" s="2" t="n"/>
+      <c r="O102" s="2" t="n"/>
+      <c r="P102" s="2" t="n"/>
+      <c r="Q102" s="2" t="n"/>
+      <c r="R102" s="2" t="n"/>
+      <c r="S102" s="2" t="n">
         <v/>
       </c>
     </row>

--- a/data/proveedor/teddy/listos/teddy.xlsx
+++ b/data/proveedor/teddy/listos/teddy.xlsx
@@ -6123,12 +6123,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>cambiador-plastico</t>
+          <t>teddy-cambiador-plastico</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>Cambiador plastico</t>
+          <t>Teddy - Cambiador plastico</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -6192,10 +6192,11 @@
       </c>
       <c r="R73" s="2" t="inlineStr">
         <is>
-          <t>Cambiador totalmente impermeable.&lt;br /&gt;
-Medidas 40x70 cms (abierto) y 24x27 cms (cerrado).&lt;br /&gt;
-Fácil limpieza.&lt;br /&gt;
-Materiales: tela plástica, relleno de guata.</t>
+          <t xml:space="preserve">&lt;p&gt;Cambiador totalmente impermeable.&lt;br /&gt;_x000D_
+Medidas 40x70 cms (abierto) y 24x27 cms (cerrado).&lt;br /&gt;_x000D_
+F&amp;aacute;cil limpieza.&lt;br /&gt;_x000D_
+Materiales: tela pl&amp;aacute;stica, relleno de guata.&lt;/p&gt;_x000D_
+</t>
         </is>
       </c>
       <c r="S73" s="2" t="n">
